--- a/tos_dde.xlsx
+++ b/tos_dde.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15135" windowHeight="5580" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15135" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3686,7 +3686,7 @@
       <ddeItem name="SPY" advise="1">
         <values>
           <value>
-            <val>132.69999999999999</val>
+            <val>133.13</val>
           </value>
         </values>
       </ddeItem>
@@ -3734,7 +3734,7 @@
       <ddeItem name="SPY" advise="1">
         <values>
           <value>
-            <val>132.75</val>
+            <val>133.13999999999999</val>
           </value>
         </values>
       </ddeItem>
@@ -3746,761 +3746,761 @@
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <ddeLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ddeService="TOS" ddeTopic="IMPL_VOL">
+  <ddeLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ddeService="TOS" ddeTopic="OPEN_INT">
     <ddeItems>
       <ddeItem name=".SPY110225C129" advise="1">
         <values>
           <value>
-            <val>0.66620000000000001</val>
+            <val>244</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C130" advise="1">
         <values>
           <value>
-            <val>0.59230000000000005</val>
+            <val>907</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C131" advise="1">
         <values>
           <value>
-            <val>0.51980000000000004</val>
+            <val>2754</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C132" advise="1">
         <values>
           <value>
-            <val>0.45989999999999998</val>
+            <val>2476</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C133" advise="1">
         <values>
           <value>
-            <val>0.39050000000000001</val>
+            <val>5576</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C134" advise="1">
         <values>
           <value>
-            <val>0.31869999999999998</val>
+            <val>34157</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C135" advise="1">
         <values>
           <value>
-            <val>0.26079999999999998</val>
+            <val>43618</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C136" advise="1">
         <values>
           <value>
-            <val>0.21970000000000001</val>
+            <val>26208</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C137" advise="1">
         <values>
           <value>
-            <val>0.19500000000000001</val>
+            <val>19267</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C129" advise="1">
         <values>
           <value>
-            <val>0.30869999999999997</val>
+            <val>46627</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C130" advise="1">
         <values>
           <value>
-            <val>0.28070000000000001</val>
+            <val>68019</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C131" advise="1">
         <values>
           <value>
-            <val>0.26569999999999999</val>
+            <val>50464</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C132" advise="1">
         <values>
           <value>
-            <val>0.24429999999999999</val>
+            <val>163461</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C133" advise="1">
         <values>
           <value>
-            <val>0.2233</val>
+            <val>75385</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C134" advise="1">
         <values>
           <value>
-            <val>0.20469999999999999</val>
+            <val>97208</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C135" advise="1">
         <values>
           <value>
-            <val>0.18870000000000001</val>
+            <val>189740</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C136" advise="1">
         <values>
           <value>
-            <val>0.17280000000000001</val>
+            <val>82713</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C137" advise="1">
         <values>
           <value>
-            <val>0.16300000000000001</val>
+            <val>64684</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C129" advise="1">
         <values>
           <value>
-            <val>0.26479999999999998</val>
+            <val>3364</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C130" advise="1">
         <values>
           <value>
-            <val>0.24929999999999999</val>
+            <val>14759</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C131" advise="1">
         <values>
           <value>
-            <val>0.23469999999999999</val>
+            <val>11723</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C132" advise="1">
         <values>
           <value>
-            <val>0.2208</val>
+            <val>18469</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C133" advise="1">
         <values>
           <value>
-            <val>0.2064</val>
+            <val>7176</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C134" advise="1">
         <values>
           <value>
-            <val>0.19359999999999999</val>
+            <val>7341</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C135" advise="1">
         <values>
           <value>
-            <val>0.18179999999999999</val>
+            <val>6403</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C136" advise="1">
         <values>
           <value>
-            <val>0.1716</val>
+            <val>10976</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C137" advise="1">
         <values>
           <value>
-            <val>0.16200000000000001</val>
+            <val>39164</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C129" advise="1">
         <values>
           <value>
-            <val>0.24540000000000001</val>
+            <val>10677</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C130" advise="1">
         <values>
           <value>
-            <val>0.2346</val>
+            <val>31319</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C131" advise="1">
         <values>
           <value>
-            <val>0.22359999999999999</val>
+            <val>20062</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C132" advise="1">
         <values>
           <value>
-            <val>0.21229999999999999</val>
+            <val>16519</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C133" advise="1">
         <values>
           <value>
-            <val>0.2019</val>
+            <val>35982</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C134" advise="1">
         <values>
           <value>
-            <val>0.19170000000000001</val>
+            <val>23979</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C135" advise="1">
         <values>
           <value>
-            <val>0.1832</val>
+            <val>27661</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C136" advise="1">
         <values>
           <value>
-            <val>0.17449999999999999</val>
+            <val>34709</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C137" advise="1">
         <values>
           <value>
-            <val>0.16719999999999999</val>
+            <val>38040</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C129" advise="1">
         <values>
           <value>
-            <val>0.23</val>
+            <val>3165</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C130" advise="1">
         <values>
           <value>
-            <val>0.22170000000000001</val>
+            <val>7734</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C131" advise="1">
         <values>
           <value>
-            <val>0.21440000000000001</val>
+            <val>9398</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C132" advise="1">
         <values>
           <value>
-            <val>0.20699999999999999</val>
+            <val>7725</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C133" advise="1">
         <values>
           <value>
-            <val>0.20019999999999999</val>
+            <val>5851</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C134" advise="1">
         <values>
           <value>
-            <val>0.19359999999999999</val>
+            <val>7934</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C135" advise="1">
         <values>
           <value>
-            <val>0.18779999999999999</val>
+            <val>7716</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C136" advise="1">
         <values>
           <value>
-            <val>0.18179999999999999</val>
+            <val>1593</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C137" advise="1">
         <values>
           <value>
-            <val>0.17610000000000001</val>
+            <val>7525</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C129" advise="1">
         <values>
           <value>
-            <val>0.22289999999999999</val>
+            <val>24971</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C130" advise="1">
         <values>
           <value>
-            <val>0.2167</val>
+            <val>28074</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C131" advise="1">
         <values>
           <value>
-            <val>0.2112</val>
+            <val>8606</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C132" advise="1">
         <values>
           <value>
-            <val>0.20499999999999999</val>
+            <val>22349</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C133" advise="1">
         <values>
           <value>
-            <val>0.19900000000000001</val>
+            <val>15789</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C134" advise="1">
         <values>
           <value>
-            <val>0.19389999999999999</val>
+            <val>19364</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C135" advise="1">
         <values>
           <value>
-            <val>0.18859999999999999</val>
+            <val>21257</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C136" advise="1">
         <values>
           <value>
-            <val>0.18360000000000001</val>
+            <val>10812</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C137" advise="1">
         <values>
           <value>
-            <val>0.1787</val>
+            <val>12139</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C128" advise="1">
         <values>
           <value>
-            <val>0.22520000000000001</val>
+            <val>619</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C129" advise="1">
         <values>
           <value>
-            <val>0.21920000000000001</val>
+            <val>1801</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C130" advise="1">
         <values>
           <value>
-            <val>0.2135</val>
+            <val>6590</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C131" advise="1">
         <values>
           <value>
-            <val>0.2082</val>
+            <val>361</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C132" advise="1">
         <values>
           <value>
-            <val>0.2026</val>
+            <val>4470</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C133" advise="1">
         <values>
           <value>
-            <val>0.19739999999999999</val>
+            <val>1487</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C134" advise="1">
         <values>
           <value>
-            <val>0.19239999999999999</val>
+            <val>1777</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C135" advise="1">
         <values>
           <value>
-            <val>0.18720000000000001</val>
+            <val>7875</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C140" advise="1">
         <values>
           <value>
-            <val>0.1656</val>
+            <val>3184</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C129" advise="1">
         <values>
           <value>
-            <val>0.2157</val>
+            <val>2829</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C130" advise="1">
         <values>
           <value>
-            <val>0.21129999999999999</val>
+            <val>15030</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C131" advise="1">
         <values>
           <value>
-            <val>0.20710000000000001</val>
+            <val>3622</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C132" advise="1">
         <values>
           <value>
-            <val>0.20300000000000001</val>
+            <val>7147</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C133" advise="1">
         <values>
           <value>
-            <val>0.19939999999999999</val>
+            <val>2573</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C134" advise="1">
         <values>
           <value>
-            <val>0.19589999999999999</val>
+            <val>8046</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C135" advise="1">
         <values>
           <value>
-            <val>0.19209999999999999</val>
+            <val>5195</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C136" advise="1">
         <values>
           <value>
-            <val>0.1885</val>
+            <val>10674</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C137" advise="1">
         <values>
           <value>
-            <val>0.18509999999999999</val>
+            <val>6356</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C129" advise="1">
         <values>
           <value>
-            <val>0.2142</val>
+            <val>35</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C130" advise="1">
         <values>
           <value>
-            <val>0.2104</val>
+            <val>316</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C131" advise="1">
         <values>
           <value>
-            <val>0.20630000000000001</val>
+            <val>742</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C132" advise="1">
         <values>
           <value>
-            <val>0.2024</val>
+            <val>1269</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C133" advise="1">
         <values>
           <value>
-            <val>0.19869999999999999</val>
+            <val>468</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C134" advise="1">
         <values>
           <value>
-            <val>0.19489999999999999</val>
+            <val>495</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C135" advise="1">
         <values>
           <value>
-            <val>0.19139999999999999</val>
+            <val>727</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C140" advise="1">
         <values>
           <value>
-            <val>0.1749</val>
+            <val>5397</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C145" advise="1">
         <values>
           <value>
-            <val>0.16139999999999999</val>
+            <val>7843</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C129" advise="1">
         <values>
           <value>
-            <val>0.21310000000000001</val>
+            <val>3769</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C130" advise="1">
         <values>
           <value>
-            <val>0.20930000000000001</val>
+            <val>21678</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C131" advise="1">
         <values>
           <value>
-            <val>0.20630000000000001</val>
+            <val>12174</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C132" advise="1">
         <values>
           <value>
-            <val>0.20319999999999999</val>
+            <val>4464</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C133" advise="1">
         <values>
           <value>
-            <val>0.19989999999999999</val>
+            <val>6587</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C134" advise="1">
         <values>
           <value>
-            <val>0.19670000000000001</val>
+            <val>6976</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C135" advise="1">
         <values>
           <value>
-            <val>0.19339999999999999</val>
+            <val>45552</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C139" advise="1">
         <values>
           <value>
-            <val>0.182</val>
+            <val>2081</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C140" advise="1">
         <values>
           <value>
-            <val>0.17929999999999999</val>
+            <val>41502</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C128" advise="1">
         <values>
           <value>
-            <val>0.21390000000000001</val>
+            <val>26</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C130" advise="1">
         <values>
           <value>
-            <val>0.20710000000000001</val>
+            <val>2413</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C131" advise="1">
         <values>
           <value>
-            <val>0.20419999999999999</val>
+            <val>0</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C132" advise="1">
         <values>
           <value>
-            <val>0.2006</val>
+            <val>0</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C133" advise="1">
         <values>
           <value>
-            <val>0.1983</val>
+            <val>0</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C134" advise="1">
         <values>
           <value>
-            <val>0.1953</val>
+            <val>3</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C135" advise="1">
         <values>
           <value>
-            <val>0.1925</val>
+            <val>1628</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C140" advise="1">
         <values>
           <value>
-            <val>0.1789</val>
+            <val>7016</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C145" advise="1">
         <values>
           <value>
-            <val>0.16619999999999999</val>
+            <val>2274</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C115" advise="1">
         <values>
           <value>
-            <val>0.25840000000000002</val>
+            <val>21462</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C120" advise="1">
         <values>
           <value>
-            <val>0.23860000000000001</val>
+            <val>23305</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C125" advise="1">
         <values>
           <value>
-            <val>0.2218</val>
+            <val>38140</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C130" advise="1">
         <values>
           <value>
-            <val>0.20660000000000001</val>
+            <val>16307</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C134" advise="1">
         <values>
           <value>
-            <val>0.19370000000000001</val>
+            <val>33</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C135" advise="1">
         <values>
           <value>
-            <val>0.19089999999999999</val>
+            <val>13623</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C140" advise="1">
         <values>
           <value>
-            <val>0.17780000000000001</val>
+            <val>10737</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C143" advise="1">
         <values>
           <value>
-            <val>0.17019999999999999</val>
+            <val>3418</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C145" advise="1">
         <values>
           <value>
-            <val>0.16619999999999999</val>
+            <val>14931</val>
           </value>
         </values>
       </ddeItem>
@@ -4570,252 +4570,252 @@
       <ddeItem name=".SPY121222C115" advise="1">
         <values>
           <value>
-            <val>0.2417</val>
+            <val>21905</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C120" advise="1">
         <values>
           <value>
-            <val>0.2298</val>
+            <val>8944</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C125" advise="1">
         <values>
           <value>
-            <val>0.21859999999999999</val>
+            <val>7902</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C130" advise="1">
         <values>
           <value>
-            <val>0.20669999999999999</val>
+            <val>6145</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C135" advise="1">
         <values>
           <value>
-            <val>0.19650000000000001</val>
+            <val>2224</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C140" advise="1">
         <values>
           <value>
-            <val>0.187</val>
+            <val>19123</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C145" advise="1">
         <values>
           <value>
-            <val>0.17780000000000001</val>
+            <val>8142</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C148" advise="1">
         <values>
           <value>
-            <val>0.17380000000000001</val>
+            <val>0</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C149" advise="1">
         <values>
           <value>
-            <val>0.1721</val>
+            <val>0</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C115" advise="1">
         <values>
           <value>
-            <val>0.2414</val>
+            <val>0</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C120" advise="1">
         <values>
           <value>
-            <val>0.22939999999999999</val>
+            <val>28</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C125" advise="1">
         <values>
           <value>
-            <val>0.2175</val>
+            <val>0</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C130" advise="1">
         <values>
           <value>
-            <val>0.20710000000000001</val>
+            <val>10</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C135" advise="1">
         <values>
           <value>
-            <val>0.19670000000000001</val>
+            <val>1791</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C140" advise="1">
         <values>
           <value>
-            <val>0.18659999999999999</val>
+            <val>4105</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C145" advise="1">
         <values>
           <value>
-            <val>0.1777</val>
+            <val>153</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C150" advise="1">
         <values>
           <value>
-            <val>0.1701</val>
+            <val>582</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C155" advise="1">
         <values>
           <value>
-            <val>0.16270000000000001</val>
+            <val>265</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C121" advise="1">
         <values>
           <value>
-            <val>0.22750000000000001</val>
+            <val>183</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C122" advise="1">
         <values>
           <value>
-            <val>0.22539999999999999</val>
+            <val>45</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C123" advise="1">
         <values>
           <value>
-            <val>0.22170000000000001</val>
+            <val>299</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C124" advise="1">
         <values>
           <value>
-            <val>0.22040000000000001</val>
+            <val>1936</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C130" advise="1">
         <values>
           <value>
-            <val>0.2072</val>
+            <val>4253</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C140" advise="1">
         <values>
           <value>
-            <val>0.187</val>
+            <val>2993</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C150" advise="1">
         <values>
           <value>
-            <val>0.17030000000000001</val>
+            <val>4592</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C160" advise="1">
         <values>
           <value>
-            <val>0.1565</val>
+            <val>1042</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C170" advise="1">
         <values>
           <value>
-            <val>0.1462</val>
+            <val>9294</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C115" advise="1">
         <values>
           <value>
-            <val>0.24099999999999999</val>
+            <val>170</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C120" advise="1">
         <values>
           <value>
-            <val>0.23119999999999999</val>
+            <val>197</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C125" advise="1">
         <values>
           <value>
-            <val>0.2228</val>
+            <val>2096</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C130" advise="1">
         <values>
           <value>
-            <val>0.21440000000000001</val>
+            <val>5707</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C135" advise="1">
         <values>
           <value>
-            <val>0.2064</val>
+            <val>1558</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C140" advise="1">
         <values>
           <value>
-            <val>0.1993</val>
+            <val>2573</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C150" advise="1">
         <values>
           <value>
-            <val>0.18490000000000001</val>
+            <val>262</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C160" advise="1">
         <values>
           <value>
-            <val>0.17249999999999999</val>
+            <val>973</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C170" advise="1">
         <values>
           <value>
-            <val>0.16170000000000001</val>
+            <val>2194</val>
           </value>
         </values>
       </ddeItem>
@@ -4827,761 +4827,761 @@
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <ddeLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ddeService="TOS" ddeTopic="OPEN_INT">
+  <ddeLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ddeService="TOS" ddeTopic="IMPL_VOL">
     <ddeItems>
       <ddeItem name=".SPY110225C129" advise="1">
         <values>
           <value>
-            <val>119</val>
+            <val>0.61209999999999998</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C130" advise="1">
         <values>
           <value>
-            <val>868</val>
+            <val>0.54210000000000003</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C131" advise="1">
         <values>
           <value>
-            <val>890</val>
+            <val>0.47389999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C132" advise="1">
         <values>
           <value>
-            <val>897</val>
+            <val>0.42130000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C133" advise="1">
         <values>
           <value>
-            <val>1900</val>
+            <val>0.35520000000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C134" advise="1">
         <values>
           <value>
-            <val>8906</val>
+            <val>0.2908</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C135" advise="1">
         <values>
           <value>
-            <val>10663</val>
+            <val>0.23849999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C136" advise="1">
         <values>
           <value>
-            <val>13904</val>
+            <val>0.2016</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110225C137" advise="1">
         <values>
           <value>
-            <val>10300</val>
+            <val>0.18090000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C129" advise="1">
         <values>
           <value>
-            <val>45657</val>
+            <val>0.28839999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C130" advise="1">
         <values>
           <value>
-            <val>65078</val>
+            <val>0.26269999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C131" advise="1">
         <values>
           <value>
-            <val>47972</val>
+            <val>0.24840000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C132" advise="1">
         <values>
           <value>
-            <val>160578</val>
+            <val>0.2286</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C133" advise="1">
         <values>
           <value>
-            <val>69038</val>
+            <val>0.2099</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C134" advise="1">
         <values>
           <value>
-            <val>93792</val>
+            <val>0.19209999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C135" advise="1">
         <values>
           <value>
-            <val>185800</val>
+            <val>0.17810000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C136" advise="1">
         <values>
           <value>
-            <val>72879</val>
+            <val>0.1633</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110319C137" advise="1">
         <values>
           <value>
-            <val>54710</val>
+            <val>0.15440000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C129" advise="1">
         <values>
           <value>
-            <val>3434</val>
+            <val>0.2487</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C130" advise="1">
         <values>
           <value>
-            <val>14338</val>
+            <val>0.2351</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C131" advise="1">
         <values>
           <value>
-            <val>11726</val>
+            <val>0.22120000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C132" advise="1">
         <values>
           <value>
-            <val>18220</val>
+            <val>0.2082</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C133" advise="1">
         <values>
           <value>
-            <val>6616</val>
+            <val>0.19550000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C134" advise="1">
         <values>
           <value>
-            <val>7263</val>
+            <val>0.1832</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C135" advise="1">
         <values>
           <value>
-            <val>4502</val>
+            <val>0.17249999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C136" advise="1">
         <values>
           <value>
-            <val>9303</val>
+            <val>0.16320000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110331C137" advise="1">
         <values>
           <value>
-            <val>39135</val>
+            <val>0.15440000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C129" advise="1">
         <values>
           <value>
-            <val>10464</val>
+            <val>0.23280000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C130" advise="1">
         <values>
           <value>
-            <val>19610</val>
+            <val>0.22220000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C131" advise="1">
         <values>
           <value>
-            <val>18998</val>
+            <val>0.21210000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C132" advise="1">
         <values>
           <value>
-            <val>17169</val>
+            <val>0.20180000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C133" advise="1">
         <values>
           <value>
-            <val>35577</val>
+            <val>0.19220000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C134" advise="1">
         <values>
           <value>
-            <val>24088</val>
+            <val>0.1832</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C135" advise="1">
         <values>
           <value>
-            <val>23987</val>
+            <val>0.17510000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C136" advise="1">
         <values>
           <value>
-            <val>35269</val>
+            <val>0.16739999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110416C137" advise="1">
         <values>
           <value>
-            <val>34114</val>
+            <val>0.16070000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C129" advise="1">
         <values>
           <value>
-            <val>3110</val>
+            <val>0.22020000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C130" advise="1">
         <values>
           <value>
-            <val>7426</val>
+            <val>0.21290000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C131" advise="1">
         <values>
           <value>
-            <val>9222</val>
+            <val>0.20619999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C132" advise="1">
         <values>
           <value>
-            <val>8297</val>
+            <val>0.1993</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C133" advise="1">
         <values>
           <value>
-            <val>6020</val>
+            <val>0.193</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C134" advise="1">
         <values>
           <value>
-            <val>7582</val>
+            <val>0.18679999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C135" advise="1">
         <values>
           <value>
-            <val>6927</val>
+            <val>0.18110000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C136" advise="1">
         <values>
           <value>
-            <val>1274</val>
+            <val>0.17560000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110521C137" advise="1">
         <values>
           <value>
-            <val>6991</val>
+            <val>0.17030000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C129" advise="1">
         <values>
           <value>
-            <val>24928</val>
+            <val>0.215</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C130" advise="1">
         <values>
           <value>
-            <val>28259</val>
+            <val>0.2092</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C131" advise="1">
         <values>
           <value>
-            <val>8576</val>
+            <val>0.20380000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C132" advise="1">
         <values>
           <value>
-            <val>22352</val>
+            <val>0.19800000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C133" advise="1">
         <values>
           <value>
-            <val>15280</val>
+            <val>0.1925</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C134" advise="1">
         <values>
           <value>
-            <val>19576</val>
+            <val>0.18759999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C135" advise="1">
         <values>
           <value>
-            <val>17143</val>
+            <val>0.183</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C136" advise="1">
         <values>
           <value>
-            <val>10829</val>
+            <val>0.17799999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110618C137" advise="1">
         <values>
           <value>
-            <val>12050</val>
+            <val>0.1734</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C128" advise="1">
         <values>
           <value>
-            <val>605</val>
+            <val>0.2172</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C129" advise="1">
         <values>
           <value>
-            <val>1787</val>
+            <val>0.2117</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C130" advise="1">
         <values>
           <value>
-            <val>6576</val>
+            <val>0.2064</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C131" advise="1">
         <values>
           <value>
-            <val>369</val>
+            <val>0.2016</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C132" advise="1">
         <values>
           <value>
-            <val>4468</val>
+            <val>0.1961</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C133" advise="1">
         <values>
           <value>
-            <val>1470</val>
+            <val>0.19120000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C134" advise="1">
         <values>
           <value>
-            <val>1777</val>
+            <val>0.1867</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C135" advise="1">
         <values>
           <value>
-            <val>7870</val>
+            <val>0.18160000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110630C140" advise="1">
         <values>
           <value>
-            <val>3194</val>
+            <val>0.16139999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C129" advise="1">
         <values>
           <value>
-            <val>2829</val>
+            <val>0.21</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C130" advise="1">
         <values>
           <value>
-            <val>15030</val>
+            <val>0.2059</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C131" advise="1">
         <values>
           <value>
-            <val>3545</val>
+            <val>0.2019</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C132" advise="1">
         <values>
           <value>
-            <val>7031</val>
+            <val>0.19800000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C133" advise="1">
         <values>
           <value>
-            <val>2572</val>
+            <val>0.19470000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C134" advise="1">
         <values>
           <value>
-            <val>2051</val>
+            <val>0.191</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C135" advise="1">
         <values>
           <value>
-            <val>5189</val>
+            <val>0.1875</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C136" advise="1">
         <values>
           <value>
-            <val>10675</val>
+            <val>0.18410000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110917C137" advise="1">
         <values>
           <value>
-            <val>6358</val>
+            <val>0.18090000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C129" advise="1">
         <values>
           <value>
-            <val>35</val>
+            <val>0.20849999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C130" advise="1">
         <values>
           <value>
-            <val>316</val>
+            <val>0.2049</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C131" advise="1">
         <values>
           <value>
-            <val>742</val>
+            <val>0.2011</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C132" advise="1">
         <values>
           <value>
-            <val>1269</val>
+            <val>0.19739999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C133" advise="1">
         <values>
           <value>
-            <val>468</val>
+            <val>0.1938</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C134" advise="1">
         <values>
           <value>
-            <val>495</val>
+            <val>0.19040000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C135" advise="1">
         <values>
           <value>
-            <val>727</val>
+            <val>0.187</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C140" advise="1">
         <values>
           <value>
-            <val>5396</val>
+            <val>0.1714</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY110930C145" advise="1">
         <values>
           <value>
-            <val>7843</val>
+            <val>0.15840000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C129" advise="1">
         <values>
           <value>
-            <val>3771</val>
+            <val>0.20830000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C130" advise="1">
         <values>
           <value>
-            <val>21568</val>
+            <val>0.20480000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C131" advise="1">
         <values>
           <value>
-            <val>12174</val>
+            <val>0.20169999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C132" advise="1">
         <values>
           <value>
-            <val>4468</val>
+            <val>0.19869999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C133" advise="1">
         <values>
           <value>
-            <val>6587</val>
+            <val>0.19589999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C134" advise="1">
         <values>
           <value>
-            <val>6976</val>
+            <val>0.19259999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C135" advise="1">
         <values>
           <value>
-            <val>45536</val>
+            <val>0.1895</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C139" advise="1">
         <values>
           <value>
-            <val>2080</val>
+            <val>0.17860000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111217C140" advise="1">
         <values>
           <value>
-            <val>41572</val>
+            <val>0.17610000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C128" advise="1">
         <values>
           <value>
-            <val>26</val>
+            <val>0.2092</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C130" advise="1">
         <values>
           <value>
-            <val>2413</val>
+            <val>0.20269999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C131" advise="1">
         <values>
           <value>
-            <val>0</val>
+            <val>0.19980000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C132" advise="1">
         <values>
           <value>
-            <val>0</val>
+            <val>0.19639999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C133" advise="1">
         <values>
           <value>
-            <val>0</val>
+            <val>0.19409999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C134" advise="1">
         <values>
           <value>
-            <val>0</val>
+            <val>0.1913</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C135" advise="1">
         <values>
           <value>
-            <val>1624</val>
+            <val>0.18870000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C140" advise="1">
         <values>
           <value>
-            <val>6892</val>
+            <val>0.1757</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY111230C145" advise="1">
         <values>
           <value>
-            <val>2274</val>
+            <val>0.1636</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C115" advise="1">
         <values>
           <value>
-            <val>21464</val>
+            <val>0.25119999999999998</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C120" advise="1">
         <values>
           <value>
-            <val>23355</val>
+            <val>0.2324</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C125" advise="1">
         <values>
           <value>
-            <val>38070</val>
+            <val>0.21640000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C130" advise="1">
         <values>
           <value>
-            <val>16328</val>
+            <val>0.20219999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C134" advise="1">
         <values>
           <value>
-            <val>16</val>
+            <val>0.19</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C135" advise="1">
         <values>
           <value>
-            <val>13612</val>
+            <val>0.18720000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C140" advise="1">
         <values>
           <value>
-            <val>10584</val>
+            <val>0.17469999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C143" advise="1">
         <values>
           <value>
-            <val>2464</val>
+            <val>0.16750000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY120121C145" advise="1">
         <values>
           <value>
-            <val>14884</val>
+            <val>0.16370000000000001</val>
           </value>
         </values>
       </ddeItem>
@@ -5651,252 +5651,252 @@
       <ddeItem name=".SPY121222C115" advise="1">
         <values>
           <value>
-            <val>21905</val>
+            <val>0.23710000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C120" advise="1">
         <values>
           <value>
-            <val>8945</val>
+            <val>0.22589999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C125" advise="1">
         <values>
           <value>
-            <val>7902</val>
+            <val>0.21510000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C130" advise="1">
         <values>
           <value>
-            <val>6123</val>
+            <val>0.20369999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C135" advise="1">
         <values>
           <value>
-            <val>2207</val>
+            <val>0.19370000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C140" advise="1">
         <values>
           <value>
-            <val>19014</val>
+            <val>0.18459999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C145" advise="1">
         <values>
           <value>
-            <val>8142</val>
+            <val>0.17580000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C148" advise="1">
         <values>
           <value>
-            <val>0</val>
+            <val>0.1719</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121222C149" advise="1">
         <values>
           <value>
-            <val>0</val>
+            <val>0.17019999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C115" advise="1">
         <values>
           <value>
-            <val>0</val>
+            <val>0.23699999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C120" advise="1">
         <values>
           <value>
-            <val>28</val>
+            <val>0.22559999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C125" advise="1">
         <values>
           <value>
-            <val>0</val>
+            <val>0.21410000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C130" advise="1">
         <values>
           <value>
-            <val>10</val>
+            <val>0.20399999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C135" advise="1">
         <values>
           <value>
-            <val>1791</val>
+            <val>0.19389999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C140" advise="1">
         <values>
           <value>
-            <val>4105</val>
+            <val>0.1842</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C145" advise="1">
         <values>
           <value>
-            <val>153</val>
+            <val>0.1757</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C150" advise="1">
         <values>
           <value>
-            <val>569</val>
+            <val>0.16819999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY121231C155" advise="1">
         <values>
           <value>
-            <val>265</val>
+            <val>0.161</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C121" advise="1">
         <values>
           <value>
-            <val>183</val>
+            <val>0.22359999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C122" advise="1">
         <values>
           <value>
-            <val>45</val>
+            <val>0.22159999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C123" advise="1">
         <values>
           <value>
-            <val>286</val>
+            <val>0.21809999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C124" advise="1">
         <values>
           <value>
-            <val>1836</val>
+            <val>0.21690000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C130" advise="1">
         <values>
           <value>
-            <val>4243</val>
+            <val>0.20430000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C140" advise="1">
         <values>
           <value>
-            <val>2993</val>
+            <val>0.18459999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C150" advise="1">
         <values>
           <value>
-            <val>4592</val>
+            <val>0.16850000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C160" advise="1">
         <values>
           <value>
-            <val>1037</val>
+            <val>0.155</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY130119C170" advise="1">
         <values>
           <value>
-            <val>9294</val>
+            <val>0.14499999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C115" advise="1">
         <values>
           <value>
-            <val>170</val>
+            <val>0.2374</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C120" advise="1">
         <values>
           <value>
-            <val>197</val>
+            <val>0.2281</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C125" advise="1">
         <values>
           <value>
-            <val>2087</val>
+            <val>0.21990000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C130" advise="1">
         <values>
           <value>
-            <val>5685</val>
+            <val>0.21199999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C135" advise="1">
         <values>
           <value>
-            <val>1552</val>
+            <val>0.2041</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C140" advise="1">
         <values>
           <value>
-            <val>561</val>
+            <val>0.1973</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C150" advise="1">
         <values>
           <value>
-            <val>260</val>
+            <val>0.1832</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C160" advise="1">
         <values>
           <value>
-            <val>971</val>
+            <val>0.1711</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name=".SPY131221C170" advise="1">
         <values>
           <value>
-            <val>2194</val>
+            <val>0.1605</val>
           </value>
         </values>
       </ddeItem>
@@ -6193,8 +6193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6205,33 +6205,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="D3">
         <f>[4]!SPY</f>
-        <v>132.69999999999999</v>
+        <v>133.13</v>
       </c>
       <c r="E3" t="str">
         <f>[5]!SPY</f>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="F3">
         <f>[6]!SPY</f>
-        <v>132.75</v>
+        <v>133.13999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6267,33 +6267,33 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
+        <f>[7]!'.SPY110225C129'</f>
+        <v>244</v>
+      </c>
+      <c r="B6">
         <f>[8]!'.SPY110225C129'</f>
-        <v>119</v>
-      </c>
-      <c r="B6">
-        <f>[7]!'.SPY110225C129'</f>
-        <v>0.66620000000000001</v>
+        <v>0.61209999999999998</v>
       </c>
       <c r="D6">
         <f>[1]!'.SPY110225C129'</f>
@@ -6310,12 +6310,12 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <f>[7]!'.SPY110225C130'</f>
+        <v>907</v>
+      </c>
+      <c r="B7">
         <f>[8]!'.SPY110225C130'</f>
-        <v>868</v>
-      </c>
-      <c r="B7">
-        <f>[7]!'.SPY110225C130'</f>
-        <v>0.59230000000000005</v>
+        <v>0.54210000000000003</v>
       </c>
       <c r="D7">
         <f>[1]!'.SPY110225C130'</f>
@@ -6332,12 +6332,12 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <f>[7]!'.SPY110225C131'</f>
+        <v>2754</v>
+      </c>
+      <c r="B8">
         <f>[8]!'.SPY110225C131'</f>
-        <v>890</v>
-      </c>
-      <c r="B8">
-        <f>[7]!'.SPY110225C131'</f>
-        <v>0.51980000000000004</v>
+        <v>0.47389999999999999</v>
       </c>
       <c r="D8">
         <f>[1]!'.SPY110225C131'</f>
@@ -6354,12 +6354,12 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <f>[7]!'.SPY110225C132'</f>
+        <v>2476</v>
+      </c>
+      <c r="B9">
         <f>[8]!'.SPY110225C132'</f>
-        <v>897</v>
-      </c>
-      <c r="B9">
-        <f>[7]!'.SPY110225C132'</f>
-        <v>0.45989999999999998</v>
+        <v>0.42130000000000001</v>
       </c>
       <c r="D9">
         <f>[1]!'.SPY110225C132'</f>
@@ -6376,12 +6376,12 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <f>[7]!'.SPY110225C133'</f>
+        <v>5576</v>
+      </c>
+      <c r="B10">
         <f>[8]!'.SPY110225C133'</f>
-        <v>1900</v>
-      </c>
-      <c r="B10">
-        <f>[7]!'.SPY110225C133'</f>
-        <v>0.39050000000000001</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="D10">
         <f>[1]!'.SPY110225C133'</f>
@@ -6398,12 +6398,12 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
+        <f>[7]!'.SPY110225C134'</f>
+        <v>34157</v>
+      </c>
+      <c r="B11">
         <f>[8]!'.SPY110225C134'</f>
-        <v>8906</v>
-      </c>
-      <c r="B11">
-        <f>[7]!'.SPY110225C134'</f>
-        <v>0.31869999999999998</v>
+        <v>0.2908</v>
       </c>
       <c r="D11">
         <f>[1]!'.SPY110225C134'</f>
@@ -6420,12 +6420,12 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <f>[7]!'.SPY110225C135'</f>
+        <v>43618</v>
+      </c>
+      <c r="B12">
         <f>[8]!'.SPY110225C135'</f>
-        <v>10663</v>
-      </c>
-      <c r="B12">
-        <f>[7]!'.SPY110225C135'</f>
-        <v>0.26079999999999998</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="D12">
         <f>[1]!'.SPY110225C135'</f>
@@ -6442,12 +6442,12 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
+        <f>[7]!'.SPY110225C136'</f>
+        <v>26208</v>
+      </c>
+      <c r="B13">
         <f>[8]!'.SPY110225C136'</f>
-        <v>13904</v>
-      </c>
-      <c r="B13">
-        <f>[7]!'.SPY110225C136'</f>
-        <v>0.21970000000000001</v>
+        <v>0.2016</v>
       </c>
       <c r="D13">
         <f>[1]!'.SPY110225C136'</f>
@@ -6464,12 +6464,12 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
+        <f>[7]!'.SPY110225C137'</f>
+        <v>19267</v>
+      </c>
+      <c r="B14">
         <f>[8]!'.SPY110225C137'</f>
-        <v>10300</v>
-      </c>
-      <c r="B14">
-        <f>[7]!'.SPY110225C137'</f>
-        <v>0.19500000000000001</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="D14">
         <f>[1]!'.SPY110225C137'</f>
@@ -6490,33 +6490,33 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
+        <f>[7]!'.SPY110319C129'</f>
+        <v>46627</v>
+      </c>
+      <c r="B17">
         <f>[8]!'.SPY110319C129'</f>
-        <v>45657</v>
-      </c>
-      <c r="B17">
-        <f>[7]!'.SPY110319C129'</f>
-        <v>0.30869999999999997</v>
+        <v>0.28839999999999999</v>
       </c>
       <c r="D17">
         <f>[1]!'.SPY110319C129'</f>
@@ -6533,12 +6533,12 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
+        <f>[7]!'.SPY110319C130'</f>
+        <v>68019</v>
+      </c>
+      <c r="B18">
         <f>[8]!'.SPY110319C130'</f>
-        <v>65078</v>
-      </c>
-      <c r="B18">
-        <f>[7]!'.SPY110319C130'</f>
-        <v>0.28070000000000001</v>
+        <v>0.26269999999999999</v>
       </c>
       <c r="D18">
         <f>[1]!'.SPY110319C130'</f>
@@ -6555,12 +6555,12 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
+        <f>[7]!'.SPY110319C131'</f>
+        <v>50464</v>
+      </c>
+      <c r="B19">
         <f>[8]!'.SPY110319C131'</f>
-        <v>47972</v>
-      </c>
-      <c r="B19">
-        <f>[7]!'.SPY110319C131'</f>
-        <v>0.26569999999999999</v>
+        <v>0.24840000000000001</v>
       </c>
       <c r="D19">
         <f>[1]!'.SPY110319C131'</f>
@@ -6577,12 +6577,12 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
+        <f>[7]!'.SPY110319C132'</f>
+        <v>163461</v>
+      </c>
+      <c r="B20">
         <f>[8]!'.SPY110319C132'</f>
-        <v>160578</v>
-      </c>
-      <c r="B20">
-        <f>[7]!'.SPY110319C132'</f>
-        <v>0.24429999999999999</v>
+        <v>0.2286</v>
       </c>
       <c r="D20">
         <f>[1]!'.SPY110319C132'</f>
@@ -6599,12 +6599,12 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
+        <f>[7]!'.SPY110319C133'</f>
+        <v>75385</v>
+      </c>
+      <c r="B21">
         <f>[8]!'.SPY110319C133'</f>
-        <v>69038</v>
-      </c>
-      <c r="B21">
-        <f>[7]!'.SPY110319C133'</f>
-        <v>0.2233</v>
+        <v>0.2099</v>
       </c>
       <c r="D21">
         <f>[1]!'.SPY110319C133'</f>
@@ -6621,12 +6621,12 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
+        <f>[7]!'.SPY110319C134'</f>
+        <v>97208</v>
+      </c>
+      <c r="B22">
         <f>[8]!'.SPY110319C134'</f>
-        <v>93792</v>
-      </c>
-      <c r="B22">
-        <f>[7]!'.SPY110319C134'</f>
-        <v>0.20469999999999999</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="D22">
         <f>[1]!'.SPY110319C134'</f>
@@ -6643,12 +6643,12 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
+        <f>[7]!'.SPY110319C135'</f>
+        <v>189740</v>
+      </c>
+      <c r="B23">
         <f>[8]!'.SPY110319C135'</f>
-        <v>185800</v>
-      </c>
-      <c r="B23">
-        <f>[7]!'.SPY110319C135'</f>
-        <v>0.18870000000000001</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="D23">
         <f>[1]!'.SPY110319C135'</f>
@@ -6665,12 +6665,12 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
+        <f>[7]!'.SPY110319C136'</f>
+        <v>82713</v>
+      </c>
+      <c r="B24">
         <f>[8]!'.SPY110319C136'</f>
-        <v>72879</v>
-      </c>
-      <c r="B24">
-        <f>[7]!'.SPY110319C136'</f>
-        <v>0.17280000000000001</v>
+        <v>0.1633</v>
       </c>
       <c r="D24">
         <f>[1]!'.SPY110319C136'</f>
@@ -6687,12 +6687,12 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
+        <f>[7]!'.SPY110319C137'</f>
+        <v>64684</v>
+      </c>
+      <c r="B25">
         <f>[8]!'.SPY110319C137'</f>
-        <v>54710</v>
-      </c>
-      <c r="B25">
-        <f>[7]!'.SPY110319C137'</f>
-        <v>0.16300000000000001</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="D25">
         <f>[1]!'.SPY110319C137'</f>
@@ -6734,12 +6734,12 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
+        <f>[7]!'.SPY110331C129'</f>
+        <v>3364</v>
+      </c>
+      <c r="B28">
         <f>[8]!'.SPY110331C129'</f>
-        <v>3434</v>
-      </c>
-      <c r="B28">
-        <f>[7]!'.SPY110331C129'</f>
-        <v>0.26479999999999998</v>
+        <v>0.2487</v>
       </c>
       <c r="D28">
         <f>[1]!'.SPY110331C129'</f>
@@ -6756,12 +6756,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
+        <f>[7]!'.SPY110331C130'</f>
+        <v>14759</v>
+      </c>
+      <c r="B29">
         <f>[8]!'.SPY110331C130'</f>
-        <v>14338</v>
-      </c>
-      <c r="B29">
-        <f>[7]!'.SPY110331C130'</f>
-        <v>0.24929999999999999</v>
+        <v>0.2351</v>
       </c>
       <c r="D29">
         <f>[1]!'.SPY110331C130'</f>
@@ -6778,12 +6778,12 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
+        <f>[7]!'.SPY110331C131'</f>
+        <v>11723</v>
+      </c>
+      <c r="B30">
         <f>[8]!'.SPY110331C131'</f>
-        <v>11726</v>
-      </c>
-      <c r="B30">
-        <f>[7]!'.SPY110331C131'</f>
-        <v>0.23469999999999999</v>
+        <v>0.22120000000000001</v>
       </c>
       <c r="D30">
         <f>[1]!'.SPY110331C131'</f>
@@ -6800,12 +6800,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
+        <f>[7]!'.SPY110331C132'</f>
+        <v>18469</v>
+      </c>
+      <c r="B31">
         <f>[8]!'.SPY110331C132'</f>
-        <v>18220</v>
-      </c>
-      <c r="B31">
-        <f>[7]!'.SPY110331C132'</f>
-        <v>0.2208</v>
+        <v>0.2082</v>
       </c>
       <c r="D31">
         <f>[1]!'.SPY110331C132'</f>
@@ -6822,12 +6822,12 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
+        <f>[7]!'.SPY110331C133'</f>
+        <v>7176</v>
+      </c>
+      <c r="B32">
         <f>[8]!'.SPY110331C133'</f>
-        <v>6616</v>
-      </c>
-      <c r="B32">
-        <f>[7]!'.SPY110331C133'</f>
-        <v>0.2064</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="D32">
         <f>[1]!'.SPY110331C133'</f>
@@ -6844,12 +6844,12 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
+        <f>[7]!'.SPY110331C134'</f>
+        <v>7341</v>
+      </c>
+      <c r="B33">
         <f>[8]!'.SPY110331C134'</f>
-        <v>7263</v>
-      </c>
-      <c r="B33">
-        <f>[7]!'.SPY110331C134'</f>
-        <v>0.19359999999999999</v>
+        <v>0.1832</v>
       </c>
       <c r="D33">
         <f>[1]!'.SPY110331C134'</f>
@@ -6866,12 +6866,12 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
+        <f>[7]!'.SPY110331C135'</f>
+        <v>6403</v>
+      </c>
+      <c r="B34">
         <f>[8]!'.SPY110331C135'</f>
-        <v>4502</v>
-      </c>
-      <c r="B34">
-        <f>[7]!'.SPY110331C135'</f>
-        <v>0.18179999999999999</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="D34">
         <f>[1]!'.SPY110331C135'</f>
@@ -6888,12 +6888,12 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
+        <f>[7]!'.SPY110331C136'</f>
+        <v>10976</v>
+      </c>
+      <c r="B35">
         <f>[8]!'.SPY110331C136'</f>
-        <v>9303</v>
-      </c>
-      <c r="B35">
-        <f>[7]!'.SPY110331C136'</f>
-        <v>0.1716</v>
+        <v>0.16320000000000001</v>
       </c>
       <c r="D35">
         <f>[1]!'.SPY110331C136'</f>
@@ -6910,12 +6910,12 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
+        <f>[7]!'.SPY110331C137'</f>
+        <v>39164</v>
+      </c>
+      <c r="B36">
         <f>[8]!'.SPY110331C137'</f>
-        <v>39135</v>
-      </c>
-      <c r="B36">
-        <f>[7]!'.SPY110331C137'</f>
-        <v>0.16200000000000001</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="D36">
         <f>[1]!'.SPY110331C137'</f>
@@ -6957,12 +6957,12 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
+        <f>[7]!'.SPY110416C129'</f>
+        <v>10677</v>
+      </c>
+      <c r="B39">
         <f>[8]!'.SPY110416C129'</f>
-        <v>10464</v>
-      </c>
-      <c r="B39">
-        <f>[7]!'.SPY110416C129'</f>
-        <v>0.24540000000000001</v>
+        <v>0.23280000000000001</v>
       </c>
       <c r="D39">
         <f>[1]!'.SPY110416C129'</f>
@@ -6979,12 +6979,12 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
+        <f>[7]!'.SPY110416C130'</f>
+        <v>31319</v>
+      </c>
+      <c r="B40">
         <f>[8]!'.SPY110416C130'</f>
-        <v>19610</v>
-      </c>
-      <c r="B40">
-        <f>[7]!'.SPY110416C130'</f>
-        <v>0.2346</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="D40">
         <f>[1]!'.SPY110416C130'</f>
@@ -7001,12 +7001,12 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
+        <f>[7]!'.SPY110416C131'</f>
+        <v>20062</v>
+      </c>
+      <c r="B41">
         <f>[8]!'.SPY110416C131'</f>
-        <v>18998</v>
-      </c>
-      <c r="B41">
-        <f>[7]!'.SPY110416C131'</f>
-        <v>0.22359999999999999</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="D41">
         <f>[1]!'.SPY110416C131'</f>
@@ -7023,12 +7023,12 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
+        <f>[7]!'.SPY110416C132'</f>
+        <v>16519</v>
+      </c>
+      <c r="B42">
         <f>[8]!'.SPY110416C132'</f>
-        <v>17169</v>
-      </c>
-      <c r="B42">
-        <f>[7]!'.SPY110416C132'</f>
-        <v>0.21229999999999999</v>
+        <v>0.20180000000000001</v>
       </c>
       <c r="D42">
         <f>[1]!'.SPY110416C132'</f>
@@ -7045,12 +7045,12 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
+        <f>[7]!'.SPY110416C133'</f>
+        <v>35982</v>
+      </c>
+      <c r="B43">
         <f>[8]!'.SPY110416C133'</f>
-        <v>35577</v>
-      </c>
-      <c r="B43">
-        <f>[7]!'.SPY110416C133'</f>
-        <v>0.2019</v>
+        <v>0.19220000000000001</v>
       </c>
       <c r="D43">
         <f>[1]!'.SPY110416C133'</f>
@@ -7067,12 +7067,12 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
+        <f>[7]!'.SPY110416C134'</f>
+        <v>23979</v>
+      </c>
+      <c r="B44">
         <f>[8]!'.SPY110416C134'</f>
-        <v>24088</v>
-      </c>
-      <c r="B44">
-        <f>[7]!'.SPY110416C134'</f>
-        <v>0.19170000000000001</v>
+        <v>0.1832</v>
       </c>
       <c r="D44">
         <f>[1]!'.SPY110416C134'</f>
@@ -7089,12 +7089,12 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
+        <f>[7]!'.SPY110416C135'</f>
+        <v>27661</v>
+      </c>
+      <c r="B45">
         <f>[8]!'.SPY110416C135'</f>
-        <v>23987</v>
-      </c>
-      <c r="B45">
-        <f>[7]!'.SPY110416C135'</f>
-        <v>0.1832</v>
+        <v>0.17510000000000001</v>
       </c>
       <c r="D45">
         <f>[1]!'.SPY110416C135'</f>
@@ -7111,12 +7111,12 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
+        <f>[7]!'.SPY110416C136'</f>
+        <v>34709</v>
+      </c>
+      <c r="B46">
         <f>[8]!'.SPY110416C136'</f>
-        <v>35269</v>
-      </c>
-      <c r="B46">
-        <f>[7]!'.SPY110416C136'</f>
-        <v>0.17449999999999999</v>
+        <v>0.16739999999999999</v>
       </c>
       <c r="D46">
         <f>[1]!'.SPY110416C136'</f>
@@ -7133,12 +7133,12 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
+        <f>[7]!'.SPY110416C137'</f>
+        <v>38040</v>
+      </c>
+      <c r="B47">
         <f>[8]!'.SPY110416C137'</f>
-        <v>34114</v>
-      </c>
-      <c r="B47">
-        <f>[7]!'.SPY110416C137'</f>
-        <v>0.16719999999999999</v>
+        <v>0.16070000000000001</v>
       </c>
       <c r="D47">
         <f>[1]!'.SPY110416C137'</f>
@@ -7180,12 +7180,12 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
+        <f>[7]!'.SPY110521C129'</f>
+        <v>3165</v>
+      </c>
+      <c r="B50">
         <f>[8]!'.SPY110521C129'</f>
-        <v>3110</v>
-      </c>
-      <c r="B50">
-        <f>[7]!'.SPY110521C129'</f>
-        <v>0.23</v>
+        <v>0.22020000000000001</v>
       </c>
       <c r="D50">
         <f>[1]!'.SPY110521C129'</f>
@@ -7202,12 +7202,12 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
+        <f>[7]!'.SPY110521C130'</f>
+        <v>7734</v>
+      </c>
+      <c r="B51">
         <f>[8]!'.SPY110521C130'</f>
-        <v>7426</v>
-      </c>
-      <c r="B51">
-        <f>[7]!'.SPY110521C130'</f>
-        <v>0.22170000000000001</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="D51">
         <f>[1]!'.SPY110521C130'</f>
@@ -7224,12 +7224,12 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
+        <f>[7]!'.SPY110521C131'</f>
+        <v>9398</v>
+      </c>
+      <c r="B52">
         <f>[8]!'.SPY110521C131'</f>
-        <v>9222</v>
-      </c>
-      <c r="B52">
-        <f>[7]!'.SPY110521C131'</f>
-        <v>0.21440000000000001</v>
+        <v>0.20619999999999999</v>
       </c>
       <c r="D52">
         <f>[1]!'.SPY110521C131'</f>
@@ -7246,12 +7246,12 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
+        <f>[7]!'.SPY110521C132'</f>
+        <v>7725</v>
+      </c>
+      <c r="B53">
         <f>[8]!'.SPY110521C132'</f>
-        <v>8297</v>
-      </c>
-      <c r="B53">
-        <f>[7]!'.SPY110521C132'</f>
-        <v>0.20699999999999999</v>
+        <v>0.1993</v>
       </c>
       <c r="D53">
         <f>[1]!'.SPY110521C132'</f>
@@ -7268,12 +7268,12 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
+        <f>[7]!'.SPY110521C133'</f>
+        <v>5851</v>
+      </c>
+      <c r="B54">
         <f>[8]!'.SPY110521C133'</f>
-        <v>6020</v>
-      </c>
-      <c r="B54">
-        <f>[7]!'.SPY110521C133'</f>
-        <v>0.20019999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="D54">
         <f>[1]!'.SPY110521C133'</f>
@@ -7290,12 +7290,12 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
+        <f>[7]!'.SPY110521C134'</f>
+        <v>7934</v>
+      </c>
+      <c r="B55">
         <f>[8]!'.SPY110521C134'</f>
-        <v>7582</v>
-      </c>
-      <c r="B55">
-        <f>[7]!'.SPY110521C134'</f>
-        <v>0.19359999999999999</v>
+        <v>0.18679999999999999</v>
       </c>
       <c r="D55">
         <f>[1]!'.SPY110521C134'</f>
@@ -7312,12 +7312,12 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
+        <f>[7]!'.SPY110521C135'</f>
+        <v>7716</v>
+      </c>
+      <c r="B56">
         <f>[8]!'.SPY110521C135'</f>
-        <v>6927</v>
-      </c>
-      <c r="B56">
-        <f>[7]!'.SPY110521C135'</f>
-        <v>0.18779999999999999</v>
+        <v>0.18110000000000001</v>
       </c>
       <c r="D56">
         <f>[1]!'.SPY110521C135'</f>
@@ -7334,12 +7334,12 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
+        <f>[7]!'.SPY110521C136'</f>
+        <v>1593</v>
+      </c>
+      <c r="B57">
         <f>[8]!'.SPY110521C136'</f>
-        <v>1274</v>
-      </c>
-      <c r="B57">
-        <f>[7]!'.SPY110521C136'</f>
-        <v>0.18179999999999999</v>
+        <v>0.17560000000000001</v>
       </c>
       <c r="D57">
         <f>[1]!'.SPY110521C136'</f>
@@ -7356,12 +7356,12 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
+        <f>[7]!'.SPY110521C137'</f>
+        <v>7525</v>
+      </c>
+      <c r="B58">
         <f>[8]!'.SPY110521C137'</f>
-        <v>6991</v>
-      </c>
-      <c r="B58">
-        <f>[7]!'.SPY110521C137'</f>
-        <v>0.17610000000000001</v>
+        <v>0.17030000000000001</v>
       </c>
       <c r="D58">
         <f>[1]!'.SPY110521C137'</f>
@@ -7403,12 +7403,12 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
+        <f>[7]!'.SPY110618C129'</f>
+        <v>24971</v>
+      </c>
+      <c r="B61">
         <f>[8]!'.SPY110618C129'</f>
-        <v>24928</v>
-      </c>
-      <c r="B61">
-        <f>[7]!'.SPY110618C129'</f>
-        <v>0.22289999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="D61">
         <f>[1]!'.SPY110618C129'</f>
@@ -7425,12 +7425,12 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
+        <f>[7]!'.SPY110618C130'</f>
+        <v>28074</v>
+      </c>
+      <c r="B62">
         <f>[8]!'.SPY110618C130'</f>
-        <v>28259</v>
-      </c>
-      <c r="B62">
-        <f>[7]!'.SPY110618C130'</f>
-        <v>0.2167</v>
+        <v>0.2092</v>
       </c>
       <c r="D62">
         <f>[1]!'.SPY110618C130'</f>
@@ -7447,12 +7447,12 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
+        <f>[7]!'.SPY110618C131'</f>
+        <v>8606</v>
+      </c>
+      <c r="B63">
         <f>[8]!'.SPY110618C131'</f>
-        <v>8576</v>
-      </c>
-      <c r="B63">
-        <f>[7]!'.SPY110618C131'</f>
-        <v>0.2112</v>
+        <v>0.20380000000000001</v>
       </c>
       <c r="D63">
         <f>[1]!'.SPY110618C131'</f>
@@ -7469,12 +7469,12 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
+        <f>[7]!'.SPY110618C132'</f>
+        <v>22349</v>
+      </c>
+      <c r="B64">
         <f>[8]!'.SPY110618C132'</f>
-        <v>22352</v>
-      </c>
-      <c r="B64">
-        <f>[7]!'.SPY110618C132'</f>
-        <v>0.20499999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D64">
         <f>[1]!'.SPY110618C132'</f>
@@ -7491,12 +7491,12 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
+        <f>[7]!'.SPY110618C133'</f>
+        <v>15789</v>
+      </c>
+      <c r="B65">
         <f>[8]!'.SPY110618C133'</f>
-        <v>15280</v>
-      </c>
-      <c r="B65">
-        <f>[7]!'.SPY110618C133'</f>
-        <v>0.19900000000000001</v>
+        <v>0.1925</v>
       </c>
       <c r="D65">
         <f>[1]!'.SPY110618C133'</f>
@@ -7513,12 +7513,12 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
+        <f>[7]!'.SPY110618C134'</f>
+        <v>19364</v>
+      </c>
+      <c r="B66">
         <f>[8]!'.SPY110618C134'</f>
-        <v>19576</v>
-      </c>
-      <c r="B66">
-        <f>[7]!'.SPY110618C134'</f>
-        <v>0.19389999999999999</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="D66">
         <f>[1]!'.SPY110618C134'</f>
@@ -7535,12 +7535,12 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
+        <f>[7]!'.SPY110618C135'</f>
+        <v>21257</v>
+      </c>
+      <c r="B67">
         <f>[8]!'.SPY110618C135'</f>
-        <v>17143</v>
-      </c>
-      <c r="B67">
-        <f>[7]!'.SPY110618C135'</f>
-        <v>0.18859999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="D67">
         <f>[1]!'.SPY110618C135'</f>
@@ -7557,12 +7557,12 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
+        <f>[7]!'.SPY110618C136'</f>
+        <v>10812</v>
+      </c>
+      <c r="B68">
         <f>[8]!'.SPY110618C136'</f>
-        <v>10829</v>
-      </c>
-      <c r="B68">
-        <f>[7]!'.SPY110618C136'</f>
-        <v>0.18360000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D68">
         <f>[1]!'.SPY110618C136'</f>
@@ -7579,12 +7579,12 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
+        <f>[7]!'.SPY110618C137'</f>
+        <v>12139</v>
+      </c>
+      <c r="B69">
         <f>[8]!'.SPY110618C137'</f>
-        <v>12050</v>
-      </c>
-      <c r="B69">
-        <f>[7]!'.SPY110618C137'</f>
-        <v>0.1787</v>
+        <v>0.1734</v>
       </c>
       <c r="D69">
         <f>[1]!'.SPY110618C137'</f>
@@ -7626,12 +7626,12 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
+        <f>[7]!'.SPY110630C128'</f>
+        <v>619</v>
+      </c>
+      <c r="B72">
         <f>[8]!'.SPY110630C128'</f>
-        <v>605</v>
-      </c>
-      <c r="B72">
-        <f>[7]!'.SPY110630C128'</f>
-        <v>0.22520000000000001</v>
+        <v>0.2172</v>
       </c>
       <c r="D72">
         <f>[1]!'.SPY110630C128'</f>
@@ -7648,12 +7648,12 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
+        <f>[7]!'.SPY110630C129'</f>
+        <v>1801</v>
+      </c>
+      <c r="B73">
         <f>[8]!'.SPY110630C129'</f>
-        <v>1787</v>
-      </c>
-      <c r="B73">
-        <f>[7]!'.SPY110630C129'</f>
-        <v>0.21920000000000001</v>
+        <v>0.2117</v>
       </c>
       <c r="D73">
         <f>[1]!'.SPY110630C129'</f>
@@ -7670,12 +7670,12 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
+        <f>[7]!'.SPY110630C130'</f>
+        <v>6590</v>
+      </c>
+      <c r="B74">
         <f>[8]!'.SPY110630C130'</f>
-        <v>6576</v>
-      </c>
-      <c r="B74">
-        <f>[7]!'.SPY110630C130'</f>
-        <v>0.2135</v>
+        <v>0.2064</v>
       </c>
       <c r="D74">
         <f>[1]!'.SPY110630C130'</f>
@@ -7692,12 +7692,12 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
+        <f>[7]!'.SPY110630C131'</f>
+        <v>361</v>
+      </c>
+      <c r="B75">
         <f>[8]!'.SPY110630C131'</f>
-        <v>369</v>
-      </c>
-      <c r="B75">
-        <f>[7]!'.SPY110630C131'</f>
-        <v>0.2082</v>
+        <v>0.2016</v>
       </c>
       <c r="D75">
         <f>[1]!'.SPY110630C131'</f>
@@ -7714,12 +7714,12 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
+        <f>[7]!'.SPY110630C132'</f>
+        <v>4470</v>
+      </c>
+      <c r="B76">
         <f>[8]!'.SPY110630C132'</f>
-        <v>4468</v>
-      </c>
-      <c r="B76">
-        <f>[7]!'.SPY110630C132'</f>
-        <v>0.2026</v>
+        <v>0.1961</v>
       </c>
       <c r="D76">
         <f>[1]!'.SPY110630C132'</f>
@@ -7736,12 +7736,12 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
+        <f>[7]!'.SPY110630C133'</f>
+        <v>1487</v>
+      </c>
+      <c r="B77">
         <f>[8]!'.SPY110630C133'</f>
-        <v>1470</v>
-      </c>
-      <c r="B77">
-        <f>[7]!'.SPY110630C133'</f>
-        <v>0.19739999999999999</v>
+        <v>0.19120000000000001</v>
       </c>
       <c r="D77">
         <f>[1]!'.SPY110630C133'</f>
@@ -7758,12 +7758,12 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
+        <f>[7]!'.SPY110630C134'</f>
+        <v>1777</v>
+      </c>
+      <c r="B78">
         <f>[8]!'.SPY110630C134'</f>
-        <v>1777</v>
-      </c>
-      <c r="B78">
-        <f>[7]!'.SPY110630C134'</f>
-        <v>0.19239999999999999</v>
+        <v>0.1867</v>
       </c>
       <c r="D78">
         <f>[1]!'.SPY110630C134'</f>
@@ -7780,12 +7780,12 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
+        <f>[7]!'.SPY110630C135'</f>
+        <v>7875</v>
+      </c>
+      <c r="B79">
         <f>[8]!'.SPY110630C135'</f>
-        <v>7870</v>
-      </c>
-      <c r="B79">
-        <f>[7]!'.SPY110630C135'</f>
-        <v>0.18720000000000001</v>
+        <v>0.18160000000000001</v>
       </c>
       <c r="D79">
         <f>[1]!'.SPY110630C135'</f>
@@ -7802,12 +7802,12 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
+        <f>[7]!'.SPY110630C140'</f>
+        <v>3184</v>
+      </c>
+      <c r="B80">
         <f>[8]!'.SPY110630C140'</f>
-        <v>3194</v>
-      </c>
-      <c r="B80">
-        <f>[7]!'.SPY110630C140'</f>
-        <v>0.1656</v>
+        <v>0.16139999999999999</v>
       </c>
       <c r="D80">
         <f>[1]!'.SPY110630C140'</f>
@@ -7849,12 +7849,12 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
+        <f>[7]!'.SPY110917C129'</f>
+        <v>2829</v>
+      </c>
+      <c r="B83">
         <f>[8]!'.SPY110917C129'</f>
-        <v>2829</v>
-      </c>
-      <c r="B83">
-        <f>[7]!'.SPY110917C129'</f>
-        <v>0.2157</v>
+        <v>0.21</v>
       </c>
       <c r="D83">
         <f>[1]!'.SPY110917C129'</f>
@@ -7871,12 +7871,12 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
+        <f>[7]!'.SPY110917C130'</f>
+        <v>15030</v>
+      </c>
+      <c r="B84">
         <f>[8]!'.SPY110917C130'</f>
-        <v>15030</v>
-      </c>
-      <c r="B84">
-        <f>[7]!'.SPY110917C130'</f>
-        <v>0.21129999999999999</v>
+        <v>0.2059</v>
       </c>
       <c r="D84">
         <f>[1]!'.SPY110917C130'</f>
@@ -7893,12 +7893,12 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
+        <f>[7]!'.SPY110917C131'</f>
+        <v>3622</v>
+      </c>
+      <c r="B85">
         <f>[8]!'.SPY110917C131'</f>
-        <v>3545</v>
-      </c>
-      <c r="B85">
-        <f>[7]!'.SPY110917C131'</f>
-        <v>0.20710000000000001</v>
+        <v>0.2019</v>
       </c>
       <c r="D85">
         <f>[1]!'.SPY110917C131'</f>
@@ -7915,12 +7915,12 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
+        <f>[7]!'.SPY110917C132'</f>
+        <v>7147</v>
+      </c>
+      <c r="B86">
         <f>[8]!'.SPY110917C132'</f>
-        <v>7031</v>
-      </c>
-      <c r="B86">
-        <f>[7]!'.SPY110917C132'</f>
-        <v>0.20300000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D86">
         <f>[1]!'.SPY110917C132'</f>
@@ -7937,12 +7937,12 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
+        <f>[7]!'.SPY110917C133'</f>
+        <v>2573</v>
+      </c>
+      <c r="B87">
         <f>[8]!'.SPY110917C133'</f>
-        <v>2572</v>
-      </c>
-      <c r="B87">
-        <f>[7]!'.SPY110917C133'</f>
-        <v>0.19939999999999999</v>
+        <v>0.19470000000000001</v>
       </c>
       <c r="D87">
         <f>[1]!'.SPY110917C133'</f>
@@ -7959,12 +7959,12 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
+        <f>[7]!'.SPY110917C134'</f>
+        <v>8046</v>
+      </c>
+      <c r="B88">
         <f>[8]!'.SPY110917C134'</f>
-        <v>2051</v>
-      </c>
-      <c r="B88">
-        <f>[7]!'.SPY110917C134'</f>
-        <v>0.19589999999999999</v>
+        <v>0.191</v>
       </c>
       <c r="D88">
         <f>[1]!'.SPY110917C134'</f>
@@ -7981,12 +7981,12 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
+        <f>[7]!'.SPY110917C135'</f>
+        <v>5195</v>
+      </c>
+      <c r="B89">
         <f>[8]!'.SPY110917C135'</f>
-        <v>5189</v>
-      </c>
-      <c r="B89">
-        <f>[7]!'.SPY110917C135'</f>
-        <v>0.19209999999999999</v>
+        <v>0.1875</v>
       </c>
       <c r="D89">
         <f>[1]!'.SPY110917C135'</f>
@@ -8003,12 +8003,12 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
+        <f>[7]!'.SPY110917C136'</f>
+        <v>10674</v>
+      </c>
+      <c r="B90">
         <f>[8]!'.SPY110917C136'</f>
-        <v>10675</v>
-      </c>
-      <c r="B90">
-        <f>[7]!'.SPY110917C136'</f>
-        <v>0.1885</v>
+        <v>0.18410000000000001</v>
       </c>
       <c r="D90">
         <f>[1]!'.SPY110917C136'</f>
@@ -8025,12 +8025,12 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
+        <f>[7]!'.SPY110917C137'</f>
+        <v>6356</v>
+      </c>
+      <c r="B91">
         <f>[8]!'.SPY110917C137'</f>
-        <v>6358</v>
-      </c>
-      <c r="B91">
-        <f>[7]!'.SPY110917C137'</f>
-        <v>0.18509999999999999</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="D91">
         <f>[1]!'.SPY110917C137'</f>
@@ -8072,12 +8072,12 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
+        <f>[7]!'.SPY110930C129'</f>
+        <v>35</v>
+      </c>
+      <c r="B94">
         <f>[8]!'.SPY110930C129'</f>
-        <v>35</v>
-      </c>
-      <c r="B94">
-        <f>[7]!'.SPY110930C129'</f>
-        <v>0.2142</v>
+        <v>0.20849999999999999</v>
       </c>
       <c r="D94">
         <f>[1]!'.SPY110930C129'</f>
@@ -8094,12 +8094,12 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
+        <f>[7]!'.SPY110930C130'</f>
+        <v>316</v>
+      </c>
+      <c r="B95">
         <f>[8]!'.SPY110930C130'</f>
-        <v>316</v>
-      </c>
-      <c r="B95">
-        <f>[7]!'.SPY110930C130'</f>
-        <v>0.2104</v>
+        <v>0.2049</v>
       </c>
       <c r="D95">
         <f>[1]!'.SPY110930C130'</f>
@@ -8116,12 +8116,12 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
+        <f>[7]!'.SPY110930C131'</f>
+        <v>742</v>
+      </c>
+      <c r="B96">
         <f>[8]!'.SPY110930C131'</f>
-        <v>742</v>
-      </c>
-      <c r="B96">
-        <f>[7]!'.SPY110930C131'</f>
-        <v>0.20630000000000001</v>
+        <v>0.2011</v>
       </c>
       <c r="D96">
         <f>[1]!'.SPY110930C131'</f>
@@ -8138,12 +8138,12 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
+        <f>[7]!'.SPY110930C132'</f>
+        <v>1269</v>
+      </c>
+      <c r="B97">
         <f>[8]!'.SPY110930C132'</f>
-        <v>1269</v>
-      </c>
-      <c r="B97">
-        <f>[7]!'.SPY110930C132'</f>
-        <v>0.2024</v>
+        <v>0.19739999999999999</v>
       </c>
       <c r="D97">
         <f>[1]!'.SPY110930C132'</f>
@@ -8160,12 +8160,12 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
+        <f>[7]!'.SPY110930C133'</f>
+        <v>468</v>
+      </c>
+      <c r="B98">
         <f>[8]!'.SPY110930C133'</f>
-        <v>468</v>
-      </c>
-      <c r="B98">
-        <f>[7]!'.SPY110930C133'</f>
-        <v>0.19869999999999999</v>
+        <v>0.1938</v>
       </c>
       <c r="D98">
         <f>[1]!'.SPY110930C133'</f>
@@ -8182,12 +8182,12 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
+        <f>[7]!'.SPY110930C134'</f>
+        <v>495</v>
+      </c>
+      <c r="B99">
         <f>[8]!'.SPY110930C134'</f>
-        <v>495</v>
-      </c>
-      <c r="B99">
-        <f>[7]!'.SPY110930C134'</f>
-        <v>0.19489999999999999</v>
+        <v>0.19040000000000001</v>
       </c>
       <c r="D99">
         <f>[1]!'.SPY110930C134'</f>
@@ -8204,12 +8204,12 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
+        <f>[7]!'.SPY110930C135'</f>
+        <v>727</v>
+      </c>
+      <c r="B100">
         <f>[8]!'.SPY110930C135'</f>
-        <v>727</v>
-      </c>
-      <c r="B100">
-        <f>[7]!'.SPY110930C135'</f>
-        <v>0.19139999999999999</v>
+        <v>0.187</v>
       </c>
       <c r="D100">
         <f>[1]!'.SPY110930C135'</f>
@@ -8226,12 +8226,12 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
+        <f>[7]!'.SPY110930C140'</f>
+        <v>5397</v>
+      </c>
+      <c r="B101">
         <f>[8]!'.SPY110930C140'</f>
-        <v>5396</v>
-      </c>
-      <c r="B101">
-        <f>[7]!'.SPY110930C140'</f>
-        <v>0.1749</v>
+        <v>0.1714</v>
       </c>
       <c r="D101">
         <f>[1]!'.SPY110930C140'</f>
@@ -8248,12 +8248,12 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
+        <f>[7]!'.SPY110930C145'</f>
+        <v>7843</v>
+      </c>
+      <c r="B102">
         <f>[8]!'.SPY110930C145'</f>
-        <v>7843</v>
-      </c>
-      <c r="B102">
-        <f>[7]!'.SPY110930C145'</f>
-        <v>0.16139999999999999</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="D102">
         <f>[1]!'.SPY110930C145'</f>
@@ -8295,12 +8295,12 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
+        <f>[7]!'.SPY111217C129'</f>
+        <v>3769</v>
+      </c>
+      <c r="B105">
         <f>[8]!'.SPY111217C129'</f>
-        <v>3771</v>
-      </c>
-      <c r="B105">
-        <f>[7]!'.SPY111217C129'</f>
-        <v>0.21310000000000001</v>
+        <v>0.20830000000000001</v>
       </c>
       <c r="D105">
         <f>[1]!'.SPY111217C129'</f>
@@ -8317,12 +8317,12 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
+        <f>[7]!'.SPY111217C130'</f>
+        <v>21678</v>
+      </c>
+      <c r="B106">
         <f>[8]!'.SPY111217C130'</f>
-        <v>21568</v>
-      </c>
-      <c r="B106">
-        <f>[7]!'.SPY111217C130'</f>
-        <v>0.20930000000000001</v>
+        <v>0.20480000000000001</v>
       </c>
       <c r="D106">
         <f>[1]!'.SPY111217C130'</f>
@@ -8339,12 +8339,12 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
+        <f>[7]!'.SPY111217C131'</f>
+        <v>12174</v>
+      </c>
+      <c r="B107">
         <f>[8]!'.SPY111217C131'</f>
-        <v>12174</v>
-      </c>
-      <c r="B107">
-        <f>[7]!'.SPY111217C131'</f>
-        <v>0.20630000000000001</v>
+        <v>0.20169999999999999</v>
       </c>
       <c r="D107">
         <f>[1]!'.SPY111217C131'</f>
@@ -8361,12 +8361,12 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
+        <f>[7]!'.SPY111217C132'</f>
+        <v>4464</v>
+      </c>
+      <c r="B108">
         <f>[8]!'.SPY111217C132'</f>
-        <v>4468</v>
-      </c>
-      <c r="B108">
-        <f>[7]!'.SPY111217C132'</f>
-        <v>0.20319999999999999</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="D108">
         <f>[1]!'.SPY111217C132'</f>
@@ -8383,12 +8383,12 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
+        <f>[7]!'.SPY111217C133'</f>
+        <v>6587</v>
+      </c>
+      <c r="B109">
         <f>[8]!'.SPY111217C133'</f>
-        <v>6587</v>
-      </c>
-      <c r="B109">
-        <f>[7]!'.SPY111217C133'</f>
-        <v>0.19989999999999999</v>
+        <v>0.19589999999999999</v>
       </c>
       <c r="D109">
         <f>[1]!'.SPY111217C133'</f>
@@ -8405,12 +8405,12 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
+        <f>[7]!'.SPY111217C134'</f>
+        <v>6976</v>
+      </c>
+      <c r="B110">
         <f>[8]!'.SPY111217C134'</f>
-        <v>6976</v>
-      </c>
-      <c r="B110">
-        <f>[7]!'.SPY111217C134'</f>
-        <v>0.19670000000000001</v>
+        <v>0.19259999999999999</v>
       </c>
       <c r="D110">
         <f>[1]!'.SPY111217C134'</f>
@@ -8427,12 +8427,12 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
+        <f>[7]!'.SPY111217C135'</f>
+        <v>45552</v>
+      </c>
+      <c r="B111">
         <f>[8]!'.SPY111217C135'</f>
-        <v>45536</v>
-      </c>
-      <c r="B111">
-        <f>[7]!'.SPY111217C135'</f>
-        <v>0.19339999999999999</v>
+        <v>0.1895</v>
       </c>
       <c r="D111">
         <f>[1]!'.SPY111217C135'</f>
@@ -8449,12 +8449,12 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
+        <f>[7]!'.SPY111217C139'</f>
+        <v>2081</v>
+      </c>
+      <c r="B112">
         <f>[8]!'.SPY111217C139'</f>
-        <v>2080</v>
-      </c>
-      <c r="B112">
-        <f>[7]!'.SPY111217C139'</f>
-        <v>0.182</v>
+        <v>0.17860000000000001</v>
       </c>
       <c r="D112">
         <f>[1]!'.SPY111217C139'</f>
@@ -8471,12 +8471,12 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
+        <f>[7]!'.SPY111217C140'</f>
+        <v>41502</v>
+      </c>
+      <c r="B113">
         <f>[8]!'.SPY111217C140'</f>
-        <v>41572</v>
-      </c>
-      <c r="B113">
-        <f>[7]!'.SPY111217C140'</f>
-        <v>0.17929999999999999</v>
+        <v>0.17610000000000001</v>
       </c>
       <c r="D113">
         <f>[1]!'.SPY111217C140'</f>
@@ -8518,12 +8518,12 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
+        <f>[7]!'.SPY111230C128'</f>
+        <v>26</v>
+      </c>
+      <c r="B116">
         <f>[8]!'.SPY111230C128'</f>
-        <v>26</v>
-      </c>
-      <c r="B116">
-        <f>[7]!'.SPY111230C128'</f>
-        <v>0.21390000000000001</v>
+        <v>0.2092</v>
       </c>
       <c r="D116">
         <f>[1]!'.SPY111230C128'</f>
@@ -8540,12 +8540,12 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
+        <f>[7]!'.SPY111230C130'</f>
+        <v>2413</v>
+      </c>
+      <c r="B117">
         <f>[8]!'.SPY111230C130'</f>
-        <v>2413</v>
-      </c>
-      <c r="B117">
-        <f>[7]!'.SPY111230C130'</f>
-        <v>0.20710000000000001</v>
+        <v>0.20269999999999999</v>
       </c>
       <c r="D117">
         <f>[1]!'.SPY111230C130'</f>
@@ -8562,12 +8562,12 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
+        <f>[7]!'.SPY111230C131'</f>
+        <v>0</v>
+      </c>
+      <c r="B118">
         <f>[8]!'.SPY111230C131'</f>
-        <v>0</v>
-      </c>
-      <c r="B118">
-        <f>[7]!'.SPY111230C131'</f>
-        <v>0.20419999999999999</v>
+        <v>0.19980000000000001</v>
       </c>
       <c r="D118" t="str">
         <f>[1]!'.SPY111230C131'</f>
@@ -8584,12 +8584,12 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
+        <f>[7]!'.SPY111230C132'</f>
+        <v>0</v>
+      </c>
+      <c r="B119">
         <f>[8]!'.SPY111230C132'</f>
-        <v>0</v>
-      </c>
-      <c r="B119">
-        <f>[7]!'.SPY111230C132'</f>
-        <v>0.2006</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="D119" t="str">
         <f>[1]!'.SPY111230C132'</f>
@@ -8606,12 +8606,12 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
+        <f>[7]!'.SPY111230C133'</f>
+        <v>0</v>
+      </c>
+      <c r="B120">
         <f>[8]!'.SPY111230C133'</f>
-        <v>0</v>
-      </c>
-      <c r="B120">
-        <f>[7]!'.SPY111230C133'</f>
-        <v>0.1983</v>
+        <v>0.19409999999999999</v>
       </c>
       <c r="D120" t="str">
         <f>[1]!'.SPY111230C133'</f>
@@ -8628,12 +8628,12 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
+        <f>[7]!'.SPY111230C134'</f>
+        <v>3</v>
+      </c>
+      <c r="B121">
         <f>[8]!'.SPY111230C134'</f>
-        <v>0</v>
-      </c>
-      <c r="B121">
-        <f>[7]!'.SPY111230C134'</f>
-        <v>0.1953</v>
+        <v>0.1913</v>
       </c>
       <c r="D121">
         <f>[1]!'.SPY111230C134'</f>
@@ -8650,12 +8650,12 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
+        <f>[7]!'.SPY111230C135'</f>
+        <v>1628</v>
+      </c>
+      <c r="B122">
         <f>[8]!'.SPY111230C135'</f>
-        <v>1624</v>
-      </c>
-      <c r="B122">
-        <f>[7]!'.SPY111230C135'</f>
-        <v>0.1925</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="D122">
         <f>[1]!'.SPY111230C135'</f>
@@ -8672,12 +8672,12 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
+        <f>[7]!'.SPY111230C140'</f>
+        <v>7016</v>
+      </c>
+      <c r="B123">
         <f>[8]!'.SPY111230C140'</f>
-        <v>6892</v>
-      </c>
-      <c r="B123">
-        <f>[7]!'.SPY111230C140'</f>
-        <v>0.1789</v>
+        <v>0.1757</v>
       </c>
       <c r="D123">
         <f>[1]!'.SPY111230C140'</f>
@@ -8694,12 +8694,12 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
+        <f>[7]!'.SPY111230C145'</f>
+        <v>2274</v>
+      </c>
+      <c r="B124">
         <f>[8]!'.SPY111230C145'</f>
-        <v>2274</v>
-      </c>
-      <c r="B124">
-        <f>[7]!'.SPY111230C145'</f>
-        <v>0.16619999999999999</v>
+        <v>0.1636</v>
       </c>
       <c r="D124">
         <f>[1]!'.SPY111230C145'</f>
@@ -8741,12 +8741,12 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
+        <f>[7]!'.SPY120121C115'</f>
+        <v>21462</v>
+      </c>
+      <c r="B127">
         <f>[8]!'.SPY120121C115'</f>
-        <v>21464</v>
-      </c>
-      <c r="B127">
-        <f>[7]!'.SPY120121C115'</f>
-        <v>0.25840000000000002</v>
+        <v>0.25119999999999998</v>
       </c>
       <c r="D127">
         <f>[1]!'.SPY120121C115'</f>
@@ -8763,12 +8763,12 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
+        <f>[7]!'.SPY120121C120'</f>
+        <v>23305</v>
+      </c>
+      <c r="B128">
         <f>[8]!'.SPY120121C120'</f>
-        <v>23355</v>
-      </c>
-      <c r="B128">
-        <f>[7]!'.SPY120121C120'</f>
-        <v>0.23860000000000001</v>
+        <v>0.2324</v>
       </c>
       <c r="D128">
         <f>[1]!'.SPY120121C120'</f>
@@ -8785,12 +8785,12 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
+        <f>[7]!'.SPY120121C125'</f>
+        <v>38140</v>
+      </c>
+      <c r="B129">
         <f>[8]!'.SPY120121C125'</f>
-        <v>38070</v>
-      </c>
-      <c r="B129">
-        <f>[7]!'.SPY120121C125'</f>
-        <v>0.2218</v>
+        <v>0.21640000000000001</v>
       </c>
       <c r="D129">
         <f>[1]!'.SPY120121C125'</f>
@@ -8807,12 +8807,12 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
+        <f>[7]!'.SPY120121C130'</f>
+        <v>16307</v>
+      </c>
+      <c r="B130">
         <f>[8]!'.SPY120121C130'</f>
-        <v>16328</v>
-      </c>
-      <c r="B130">
-        <f>[7]!'.SPY120121C130'</f>
-        <v>0.20660000000000001</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="D130">
         <f>[1]!'.SPY120121C130'</f>
@@ -8829,12 +8829,12 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
+        <f>[7]!'.SPY120121C134'</f>
+        <v>33</v>
+      </c>
+      <c r="B131">
         <f>[8]!'.SPY120121C134'</f>
-        <v>16</v>
-      </c>
-      <c r="B131">
-        <f>[7]!'.SPY120121C134'</f>
-        <v>0.19370000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="D131">
         <f>[1]!'.SPY120121C134'</f>
@@ -8851,12 +8851,12 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
+        <f>[7]!'.SPY120121C135'</f>
+        <v>13623</v>
+      </c>
+      <c r="B132">
         <f>[8]!'.SPY120121C135'</f>
-        <v>13612</v>
-      </c>
-      <c r="B132">
-        <f>[7]!'.SPY120121C135'</f>
-        <v>0.19089999999999999</v>
+        <v>0.18720000000000001</v>
       </c>
       <c r="D132">
         <f>[1]!'.SPY120121C135'</f>
@@ -8873,12 +8873,12 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
+        <f>[7]!'.SPY120121C140'</f>
+        <v>10737</v>
+      </c>
+      <c r="B133">
         <f>[8]!'.SPY120121C140'</f>
-        <v>10584</v>
-      </c>
-      <c r="B133">
-        <f>[7]!'.SPY120121C140'</f>
-        <v>0.17780000000000001</v>
+        <v>0.17469999999999999</v>
       </c>
       <c r="D133">
         <f>[1]!'.SPY120121C140'</f>
@@ -8895,12 +8895,12 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
+        <f>[7]!'.SPY120121C143'</f>
+        <v>3418</v>
+      </c>
+      <c r="B134">
         <f>[8]!'.SPY120121C143'</f>
-        <v>2464</v>
-      </c>
-      <c r="B134">
-        <f>[7]!'.SPY120121C143'</f>
-        <v>0.17019999999999999</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="D134">
         <f>[1]!'.SPY120121C143'</f>
@@ -8917,12 +8917,12 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
+        <f>[7]!'.SPY120121C145'</f>
+        <v>14931</v>
+      </c>
+      <c r="B135">
         <f>[8]!'.SPY120121C145'</f>
-        <v>14884</v>
-      </c>
-      <c r="B135">
-        <f>[7]!'.SPY120121C145'</f>
-        <v>0.16619999999999999</v>
+        <v>0.16370000000000001</v>
       </c>
       <c r="D135">
         <f>[1]!'.SPY120121C145'</f>
@@ -8964,11 +8964,11 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="str">
+        <f>[7]!'.SPY120317C129'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B138" t="str">
         <f>[8]!'.SPY120317C129'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B138" t="str">
-        <f>[7]!'.SPY120317C129'</f>
         <v>N/A</v>
       </c>
       <c r="D138" t="str">
@@ -8986,11 +8986,11 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="str">
+        <f>[7]!'.SPY120317C130'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B139" t="str">
         <f>[8]!'.SPY120317C130'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B139" t="str">
-        <f>[7]!'.SPY120317C130'</f>
         <v>N/A</v>
       </c>
       <c r="D139" t="str">
@@ -9008,11 +9008,11 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="str">
+        <f>[7]!'.SPY120317C131'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B140" t="str">
         <f>[8]!'.SPY120317C131'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B140" t="str">
-        <f>[7]!'.SPY120317C131'</f>
         <v>N/A</v>
       </c>
       <c r="D140" t="str">
@@ -9030,11 +9030,11 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="str">
+        <f>[7]!'.SPY120317C132'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B141" t="str">
         <f>[8]!'.SPY120317C132'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B141" t="str">
-        <f>[7]!'.SPY120317C132'</f>
         <v>N/A</v>
       </c>
       <c r="D141" t="str">
@@ -9052,11 +9052,11 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="str">
+        <f>[7]!'.SPY120317C133'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B142" t="str">
         <f>[8]!'.SPY120317C133'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B142" t="str">
-        <f>[7]!'.SPY120317C133'</f>
         <v>N/A</v>
       </c>
       <c r="D142" t="str">
@@ -9074,11 +9074,11 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="str">
+        <f>[7]!'.SPY120317C134'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B143" t="str">
         <f>[8]!'.SPY120317C134'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B143" t="str">
-        <f>[7]!'.SPY120317C134'</f>
         <v>N/A</v>
       </c>
       <c r="D143" t="str">
@@ -9096,11 +9096,11 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="str">
+        <f>[7]!'.SPY120317C135'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B144" t="str">
         <f>[8]!'.SPY120317C135'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B144" t="str">
-        <f>[7]!'.SPY120317C135'</f>
         <v>N/A</v>
       </c>
       <c r="D144" t="str">
@@ -9118,11 +9118,11 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="str">
+        <f>[7]!'.SPY120317C136'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B145" t="str">
         <f>[8]!'.SPY120317C136'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B145" t="str">
-        <f>[7]!'.SPY120317C136'</f>
         <v>N/A</v>
       </c>
       <c r="D145" t="str">
@@ -9140,11 +9140,11 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="str">
+        <f>[7]!'.SPY120317C137'</f>
+        <v>N/A</v>
+      </c>
+      <c r="B146" t="str">
         <f>[8]!'.SPY120317C137'</f>
-        <v>N/A</v>
-      </c>
-      <c r="B146" t="str">
-        <f>[7]!'.SPY120317C137'</f>
         <v>N/A</v>
       </c>
       <c r="D146" t="str">
@@ -9187,12 +9187,12 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
+        <f>[7]!'.SPY121222C115'</f>
+        <v>21905</v>
+      </c>
+      <c r="B149">
         <f>[8]!'.SPY121222C115'</f>
-        <v>21905</v>
-      </c>
-      <c r="B149">
-        <f>[7]!'.SPY121222C115'</f>
-        <v>0.2417</v>
+        <v>0.23710000000000001</v>
       </c>
       <c r="D149">
         <f>[1]!'.SPY121222C115'</f>
@@ -9209,12 +9209,12 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
+        <f>[7]!'.SPY121222C120'</f>
+        <v>8944</v>
+      </c>
+      <c r="B150">
         <f>[8]!'.SPY121222C120'</f>
-        <v>8945</v>
-      </c>
-      <c r="B150">
-        <f>[7]!'.SPY121222C120'</f>
-        <v>0.2298</v>
+        <v>0.22589999999999999</v>
       </c>
       <c r="D150">
         <f>[1]!'.SPY121222C120'</f>
@@ -9231,12 +9231,12 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
+        <f>[7]!'.SPY121222C125'</f>
+        <v>7902</v>
+      </c>
+      <c r="B151">
         <f>[8]!'.SPY121222C125'</f>
-        <v>7902</v>
-      </c>
-      <c r="B151">
-        <f>[7]!'.SPY121222C125'</f>
-        <v>0.21859999999999999</v>
+        <v>0.21510000000000001</v>
       </c>
       <c r="D151">
         <f>[1]!'.SPY121222C125'</f>
@@ -9253,12 +9253,12 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
+        <f>[7]!'.SPY121222C130'</f>
+        <v>6145</v>
+      </c>
+      <c r="B152">
         <f>[8]!'.SPY121222C130'</f>
-        <v>6123</v>
-      </c>
-      <c r="B152">
-        <f>[7]!'.SPY121222C130'</f>
-        <v>0.20669999999999999</v>
+        <v>0.20369999999999999</v>
       </c>
       <c r="D152">
         <f>[1]!'.SPY121222C130'</f>
@@ -9275,12 +9275,12 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
+        <f>[7]!'.SPY121222C135'</f>
+        <v>2224</v>
+      </c>
+      <c r="B153">
         <f>[8]!'.SPY121222C135'</f>
-        <v>2207</v>
-      </c>
-      <c r="B153">
-        <f>[7]!'.SPY121222C135'</f>
-        <v>0.19650000000000001</v>
+        <v>0.19370000000000001</v>
       </c>
       <c r="D153">
         <f>[1]!'.SPY121222C135'</f>
@@ -9297,12 +9297,12 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
+        <f>[7]!'.SPY121222C140'</f>
+        <v>19123</v>
+      </c>
+      <c r="B154">
         <f>[8]!'.SPY121222C140'</f>
-        <v>19014</v>
-      </c>
-      <c r="B154">
-        <f>[7]!'.SPY121222C140'</f>
-        <v>0.187</v>
+        <v>0.18459999999999999</v>
       </c>
       <c r="D154">
         <f>[1]!'.SPY121222C140'</f>
@@ -9319,12 +9319,12 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
+        <f>[7]!'.SPY121222C145'</f>
+        <v>8142</v>
+      </c>
+      <c r="B155">
         <f>[8]!'.SPY121222C145'</f>
-        <v>8142</v>
-      </c>
-      <c r="B155">
-        <f>[7]!'.SPY121222C145'</f>
-        <v>0.17780000000000001</v>
+        <v>0.17580000000000001</v>
       </c>
       <c r="D155">
         <f>[1]!'.SPY121222C145'</f>
@@ -9341,12 +9341,12 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
+        <f>[7]!'.SPY121222C148'</f>
+        <v>0</v>
+      </c>
+      <c r="B156">
         <f>[8]!'.SPY121222C148'</f>
-        <v>0</v>
-      </c>
-      <c r="B156">
-        <f>[7]!'.SPY121222C148'</f>
-        <v>0.17380000000000001</v>
+        <v>0.1719</v>
       </c>
       <c r="D156" t="str">
         <f>[1]!'.SPY121222C148'</f>
@@ -9363,12 +9363,12 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
+        <f>[7]!'.SPY121222C149'</f>
+        <v>0</v>
+      </c>
+      <c r="B157">
         <f>[8]!'.SPY121222C149'</f>
-        <v>0</v>
-      </c>
-      <c r="B157">
-        <f>[7]!'.SPY121222C149'</f>
-        <v>0.1721</v>
+        <v>0.17019999999999999</v>
       </c>
       <c r="D157" t="str">
         <f>[1]!'.SPY121222C149'</f>
@@ -9410,12 +9410,12 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
+        <f>[7]!'.SPY121231C115'</f>
+        <v>0</v>
+      </c>
+      <c r="B160">
         <f>[8]!'.SPY121231C115'</f>
-        <v>0</v>
-      </c>
-      <c r="B160">
-        <f>[7]!'.SPY121231C115'</f>
-        <v>0.2414</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="D160" t="str">
         <f>[1]!'.SPY121231C115'</f>
@@ -9432,12 +9432,12 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
+        <f>[7]!'.SPY121231C120'</f>
+        <v>28</v>
+      </c>
+      <c r="B161">
         <f>[8]!'.SPY121231C120'</f>
-        <v>28</v>
-      </c>
-      <c r="B161">
-        <f>[7]!'.SPY121231C120'</f>
-        <v>0.22939999999999999</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="D161">
         <f>[1]!'.SPY121231C120'</f>
@@ -9454,12 +9454,12 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
+        <f>[7]!'.SPY121231C125'</f>
+        <v>0</v>
+      </c>
+      <c r="B162">
         <f>[8]!'.SPY121231C125'</f>
-        <v>0</v>
-      </c>
-      <c r="B162">
-        <f>[7]!'.SPY121231C125'</f>
-        <v>0.2175</v>
+        <v>0.21410000000000001</v>
       </c>
       <c r="D162" t="str">
         <f>[1]!'.SPY121231C125'</f>
@@ -9476,12 +9476,12 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
+        <f>[7]!'.SPY121231C130'</f>
+        <v>10</v>
+      </c>
+      <c r="B163">
         <f>[8]!'.SPY121231C130'</f>
-        <v>10</v>
-      </c>
-      <c r="B163">
-        <f>[7]!'.SPY121231C130'</f>
-        <v>0.20710000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D163">
         <f>[1]!'.SPY121231C130'</f>
@@ -9498,12 +9498,12 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
+        <f>[7]!'.SPY121231C135'</f>
+        <v>1791</v>
+      </c>
+      <c r="B164">
         <f>[8]!'.SPY121231C135'</f>
-        <v>1791</v>
-      </c>
-      <c r="B164">
-        <f>[7]!'.SPY121231C135'</f>
-        <v>0.19670000000000001</v>
+        <v>0.19389999999999999</v>
       </c>
       <c r="D164">
         <f>[1]!'.SPY121231C135'</f>
@@ -9520,12 +9520,12 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
+        <f>[7]!'.SPY121231C140'</f>
+        <v>4105</v>
+      </c>
+      <c r="B165">
         <f>[8]!'.SPY121231C140'</f>
-        <v>4105</v>
-      </c>
-      <c r="B165">
-        <f>[7]!'.SPY121231C140'</f>
-        <v>0.18659999999999999</v>
+        <v>0.1842</v>
       </c>
       <c r="D165">
         <f>[1]!'.SPY121231C140'</f>
@@ -9542,12 +9542,12 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
+        <f>[7]!'.SPY121231C145'</f>
+        <v>153</v>
+      </c>
+      <c r="B166">
         <f>[8]!'.SPY121231C145'</f>
-        <v>153</v>
-      </c>
-      <c r="B166">
-        <f>[7]!'.SPY121231C145'</f>
-        <v>0.1777</v>
+        <v>0.1757</v>
       </c>
       <c r="D166">
         <f>[1]!'.SPY121231C145'</f>
@@ -9564,12 +9564,12 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
+        <f>[7]!'.SPY121231C150'</f>
+        <v>582</v>
+      </c>
+      <c r="B167">
         <f>[8]!'.SPY121231C150'</f>
-        <v>569</v>
-      </c>
-      <c r="B167">
-        <f>[7]!'.SPY121231C150'</f>
-        <v>0.1701</v>
+        <v>0.16819999999999999</v>
       </c>
       <c r="D167">
         <f>[1]!'.SPY121231C150'</f>
@@ -9586,12 +9586,12 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
+        <f>[7]!'.SPY121231C155'</f>
+        <v>265</v>
+      </c>
+      <c r="B168">
         <f>[8]!'.SPY121231C155'</f>
-        <v>265</v>
-      </c>
-      <c r="B168">
-        <f>[7]!'.SPY121231C155'</f>
-        <v>0.16270000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="D168">
         <f>[1]!'.SPY121231C155'</f>
@@ -9633,12 +9633,12 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
+        <f>[7]!'.SPY130119C121'</f>
+        <v>183</v>
+      </c>
+      <c r="B171">
         <f>[8]!'.SPY130119C121'</f>
-        <v>183</v>
-      </c>
-      <c r="B171">
-        <f>[7]!'.SPY130119C121'</f>
-        <v>0.22750000000000001</v>
+        <v>0.22359999999999999</v>
       </c>
       <c r="D171">
         <f>[1]!'.SPY130119C121'</f>
@@ -9655,12 +9655,12 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
+        <f>[7]!'.SPY130119C122'</f>
+        <v>45</v>
+      </c>
+      <c r="B172">
         <f>[8]!'.SPY130119C122'</f>
-        <v>45</v>
-      </c>
-      <c r="B172">
-        <f>[7]!'.SPY130119C122'</f>
-        <v>0.22539999999999999</v>
+        <v>0.22159999999999999</v>
       </c>
       <c r="D172">
         <f>[1]!'.SPY130119C122'</f>
@@ -9677,12 +9677,12 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
+        <f>[7]!'.SPY130119C123'</f>
+        <v>299</v>
+      </c>
+      <c r="B173">
         <f>[8]!'.SPY130119C123'</f>
-        <v>286</v>
-      </c>
-      <c r="B173">
-        <f>[7]!'.SPY130119C123'</f>
-        <v>0.22170000000000001</v>
+        <v>0.21809999999999999</v>
       </c>
       <c r="D173">
         <f>[1]!'.SPY130119C123'</f>
@@ -9699,12 +9699,12 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
+        <f>[7]!'.SPY130119C124'</f>
+        <v>1936</v>
+      </c>
+      <c r="B174">
         <f>[8]!'.SPY130119C124'</f>
-        <v>1836</v>
-      </c>
-      <c r="B174">
-        <f>[7]!'.SPY130119C124'</f>
-        <v>0.22040000000000001</v>
+        <v>0.21690000000000001</v>
       </c>
       <c r="D174">
         <f>[1]!'.SPY130119C124'</f>
@@ -9721,12 +9721,12 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
+        <f>[7]!'.SPY130119C130'</f>
+        <v>4253</v>
+      </c>
+      <c r="B175">
         <f>[8]!'.SPY130119C130'</f>
-        <v>4243</v>
-      </c>
-      <c r="B175">
-        <f>[7]!'.SPY130119C130'</f>
-        <v>0.2072</v>
+        <v>0.20430000000000001</v>
       </c>
       <c r="D175">
         <f>[1]!'.SPY130119C130'</f>
@@ -9743,12 +9743,12 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
+        <f>[7]!'.SPY130119C140'</f>
+        <v>2993</v>
+      </c>
+      <c r="B176">
         <f>[8]!'.SPY130119C140'</f>
-        <v>2993</v>
-      </c>
-      <c r="B176">
-        <f>[7]!'.SPY130119C140'</f>
-        <v>0.187</v>
+        <v>0.18459999999999999</v>
       </c>
       <c r="D176">
         <f>[1]!'.SPY130119C140'</f>
@@ -9765,12 +9765,12 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
+        <f>[7]!'.SPY130119C150'</f>
+        <v>4592</v>
+      </c>
+      <c r="B177">
         <f>[8]!'.SPY130119C150'</f>
-        <v>4592</v>
-      </c>
-      <c r="B177">
-        <f>[7]!'.SPY130119C150'</f>
-        <v>0.17030000000000001</v>
+        <v>0.16850000000000001</v>
       </c>
       <c r="D177">
         <f>[1]!'.SPY130119C150'</f>
@@ -9787,12 +9787,12 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
+        <f>[7]!'.SPY130119C160'</f>
+        <v>1042</v>
+      </c>
+      <c r="B178">
         <f>[8]!'.SPY130119C160'</f>
-        <v>1037</v>
-      </c>
-      <c r="B178">
-        <f>[7]!'.SPY130119C160'</f>
-        <v>0.1565</v>
+        <v>0.155</v>
       </c>
       <c r="D178">
         <f>[1]!'.SPY130119C160'</f>
@@ -9809,12 +9809,12 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
+        <f>[7]!'.SPY130119C170'</f>
+        <v>9294</v>
+      </c>
+      <c r="B179">
         <f>[8]!'.SPY130119C170'</f>
-        <v>9294</v>
-      </c>
-      <c r="B179">
-        <f>[7]!'.SPY130119C170'</f>
-        <v>0.1462</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D179">
         <f>[1]!'.SPY130119C170'</f>
@@ -9856,12 +9856,12 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
+        <f>[7]!'.SPY131221C115'</f>
+        <v>170</v>
+      </c>
+      <c r="B182">
         <f>[8]!'.SPY131221C115'</f>
-        <v>170</v>
-      </c>
-      <c r="B182">
-        <f>[7]!'.SPY131221C115'</f>
-        <v>0.24099999999999999</v>
+        <v>0.2374</v>
       </c>
       <c r="D182">
         <f>[1]!'.SPY131221C115'</f>
@@ -9878,12 +9878,12 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
+        <f>[7]!'.SPY131221C120'</f>
+        <v>197</v>
+      </c>
+      <c r="B183">
         <f>[8]!'.SPY131221C120'</f>
-        <v>197</v>
-      </c>
-      <c r="B183">
-        <f>[7]!'.SPY131221C120'</f>
-        <v>0.23119999999999999</v>
+        <v>0.2281</v>
       </c>
       <c r="D183">
         <f>[1]!'.SPY131221C120'</f>
@@ -9900,12 +9900,12 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
+        <f>[7]!'.SPY131221C125'</f>
+        <v>2096</v>
+      </c>
+      <c r="B184">
         <f>[8]!'.SPY131221C125'</f>
-        <v>2087</v>
-      </c>
-      <c r="B184">
-        <f>[7]!'.SPY131221C125'</f>
-        <v>0.2228</v>
+        <v>0.21990000000000001</v>
       </c>
       <c r="D184">
         <f>[1]!'.SPY131221C125'</f>
@@ -9922,12 +9922,12 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
+        <f>[7]!'.SPY131221C130'</f>
+        <v>5707</v>
+      </c>
+      <c r="B185">
         <f>[8]!'.SPY131221C130'</f>
-        <v>5685</v>
-      </c>
-      <c r="B185">
-        <f>[7]!'.SPY131221C130'</f>
-        <v>0.21440000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D185">
         <f>[1]!'.SPY131221C130'</f>
@@ -9944,12 +9944,12 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
+        <f>[7]!'.SPY131221C135'</f>
+        <v>1558</v>
+      </c>
+      <c r="B186">
         <f>[8]!'.SPY131221C135'</f>
-        <v>1552</v>
-      </c>
-      <c r="B186">
-        <f>[7]!'.SPY131221C135'</f>
-        <v>0.2064</v>
+        <v>0.2041</v>
       </c>
       <c r="D186">
         <f>[1]!'.SPY131221C135'</f>
@@ -9966,12 +9966,12 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
+        <f>[7]!'.SPY131221C140'</f>
+        <v>2573</v>
+      </c>
+      <c r="B187">
         <f>[8]!'.SPY131221C140'</f>
-        <v>561</v>
-      </c>
-      <c r="B187">
-        <f>[7]!'.SPY131221C140'</f>
-        <v>0.1993</v>
+        <v>0.1973</v>
       </c>
       <c r="D187">
         <f>[1]!'.SPY131221C140'</f>
@@ -9988,12 +9988,12 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
+        <f>[7]!'.SPY131221C150'</f>
+        <v>262</v>
+      </c>
+      <c r="B188">
         <f>[8]!'.SPY131221C150'</f>
-        <v>260</v>
-      </c>
-      <c r="B188">
-        <f>[7]!'.SPY131221C150'</f>
-        <v>0.18490000000000001</v>
+        <v>0.1832</v>
       </c>
       <c r="D188">
         <f>[1]!'.SPY131221C150'</f>
@@ -10010,12 +10010,12 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
+        <f>[7]!'.SPY131221C160'</f>
+        <v>973</v>
+      </c>
+      <c r="B189">
         <f>[8]!'.SPY131221C160'</f>
-        <v>971</v>
-      </c>
-      <c r="B189">
-        <f>[7]!'.SPY131221C160'</f>
-        <v>0.17249999999999999</v>
+        <v>0.1711</v>
       </c>
       <c r="D189">
         <f>[1]!'.SPY131221C160'</f>
@@ -10032,12 +10032,12 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
+        <f>[7]!'.SPY131221C170'</f>
+        <v>2194</v>
+      </c>
+      <c r="B190">
         <f>[8]!'.SPY131221C170'</f>
-        <v>2194</v>
-      </c>
-      <c r="B190">
-        <f>[7]!'.SPY131221C170'</f>
-        <v>0.16170000000000001</v>
+        <v>0.1605</v>
       </c>
       <c r="D190">
         <f>[1]!'.SPY131221C170'</f>
@@ -10065,7 +10065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
